--- a/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>PBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,207 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1500</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1600</v>
       </c>
       <c r="F10" s="3">
         <v>1600</v>
       </c>
       <c r="G10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>900</v>
       </c>
       <c r="M10" s="3">
         <v>900</v>
       </c>
       <c r="N10" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="O10" s="3">
         <v>1000</v>
@@ -863,8 +873,11 @@
       <c r="P10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -995,26 +1015,29 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>4200</v>
       </c>
       <c r="N17" s="3">
         <v>4200</v>
       </c>
       <c r="O17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P17" s="3">
         <v>4400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E18" s="3">
         <v>400</v>
       </c>
       <c r="F18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G18" s="3">
         <v>500</v>
       </c>
       <c r="H18" s="3">
+        <v>500</v>
+      </c>
+      <c r="I18" s="3">
         <v>900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,23 +1221,23 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1222,52 +1256,58 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E21" s="3">
         <v>500</v>
       </c>
       <c r="F21" s="3">
+        <v>500</v>
+      </c>
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,76 +1350,82 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>800</v>
       </c>
       <c r="I23" s="3">
         <v>800</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1491,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,43 +1503,46 @@
         <v>500</v>
       </c>
       <c r="E26" s="3">
+        <v>500</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,43 +1550,46 @@
         <v>500</v>
       </c>
       <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,13 +1632,16 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1592,22 +1653,22 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>2500</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-2900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-600</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,23 +1785,23 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1750,8 +1820,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,43 +1832,46 @@
         <v>500</v>
       </c>
       <c r="E33" s="3">
+        <v>500</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1914,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,92 +1926,98 @@
         <v>500</v>
       </c>
       <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,60 +2053,64 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E41" s="3">
         <v>15500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -2028,8 +2118,8 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2055,52 +2145,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E43" s="3">
         <v>10000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,104 +2239,113 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>400</v>
       </c>
       <c r="L45" s="3">
+        <v>400</v>
+      </c>
+      <c r="M45" s="3">
         <v>3700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E46" s="3">
         <v>26000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>24300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>20900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>19900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>1300</v>
@@ -2251,8 +2356,8 @@
       <c r="H47" s="3">
         <v>1300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+      <c r="I47" s="3">
+        <v>1300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -2260,14 +2365,14 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2275,13 +2380,16 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
@@ -2296,31 +2404,34 @@
         <v>300</v>
       </c>
       <c r="I48" s="3">
+        <v>300</v>
+      </c>
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>2400</v>
       </c>
       <c r="N48" s="3">
         <v>2400</v>
       </c>
       <c r="O48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P48" s="3">
         <v>2500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2484,7 +2604,7 @@
         <v>400</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E54" s="3">
         <v>26600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>22400</v>
       </c>
       <c r="L54" s="3">
         <v>22400</v>
       </c>
       <c r="M54" s="3">
+        <v>22400</v>
+      </c>
+      <c r="N54" s="3">
         <v>22500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,37 +2749,38 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1400</v>
       </c>
       <c r="M57" s="3">
         <v>1400</v>
@@ -2658,13 +2789,16 @@
         <v>1400</v>
       </c>
       <c r="O57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,41 +2841,44 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
@@ -2751,52 +2888,58 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>3700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1500</v>
       </c>
       <c r="L60" s="3">
         <v>1500</v>
       </c>
       <c r="M60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="N60" s="3">
         <v>1400</v>
       </c>
       <c r="O60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2810,7 +2953,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2819,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -2831,7 +2974,7 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -2839,13 +2982,16 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="E62" s="3">
         <v>2300</v>
@@ -2854,7 +3000,7 @@
         <v>2300</v>
       </c>
       <c r="G62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="H62" s="3">
         <v>2500</v>
@@ -2866,13 +3012,13 @@
         <v>2500</v>
       </c>
       <c r="K62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L62" s="3">
         <v>2700</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E72" s="3">
         <v>19500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>17500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E76" s="3">
         <v>20600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3706,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,43 +3770,46 @@
         <v>500</v>
       </c>
       <c r="E81" s="3">
+        <v>500</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3646,16 +3845,16 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>-400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3972,34 +4193,37 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>1200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>600</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>1900</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,13 +4381,14 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,29 +4567,32 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>PBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,210 +665,219 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E9" s="3">
         <v>3000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1600</v>
       </c>
       <c r="G10" s="3">
         <v>1600</v>
       </c>
       <c r="H10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I10" s="3">
         <v>1500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1200</v>
-      </c>
-      <c r="M10" s="3">
-        <v>900</v>
       </c>
       <c r="N10" s="3">
         <v>900</v>
       </c>
       <c r="O10" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="P10" s="3">
         <v>1000</v>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1018,26 +1037,29 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E17" s="3">
         <v>4100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>4200</v>
       </c>
       <c r="O17" s="3">
         <v>4200</v>
       </c>
       <c r="P17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>4400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
-      </c>
-      <c r="E18" s="3">
-        <v>400</v>
       </c>
       <c r="F18" s="3">
         <v>400</v>
       </c>
       <c r="G18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H18" s="3">
         <v>500</v>
       </c>
       <c r="I18" s="3">
+        <v>500</v>
+      </c>
+      <c r="J18" s="3">
         <v>900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1224,23 +1257,23 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1259,55 +1292,61 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
         <v>600</v>
-      </c>
-      <c r="E21" s="3">
-        <v>500</v>
       </c>
       <c r="F21" s="3">
         <v>500</v>
       </c>
       <c r="G21" s="3">
+        <v>500</v>
+      </c>
+      <c r="H21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>800</v>
       </c>
       <c r="J23" s="3">
         <v>800</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,26 +1454,26 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E26" s="3">
         <v>500</v>
       </c>
       <c r="F26" s="3">
+        <v>500</v>
+      </c>
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E27" s="3">
         <v>500</v>
       </c>
       <c r="F27" s="3">
+        <v>500</v>
+      </c>
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,16 +1692,19 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1656,22 +1716,22 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>2500</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-2900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-600</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1788,23 +1857,23 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1823,55 +1892,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E33" s="3">
         <v>500</v>
       </c>
       <c r="F33" s="3">
+        <v>500</v>
+      </c>
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E35" s="3">
         <v>500</v>
       </c>
       <c r="F35" s="3">
+        <v>500</v>
+      </c>
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,66 +2139,70 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E41" s="3">
         <v>15300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -2121,8 +2210,8 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -2148,55 +2237,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E43" s="3">
         <v>9000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,113 +2337,122 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>400</v>
       </c>
       <c r="L45" s="3">
         <v>400</v>
       </c>
       <c r="M45" s="3">
+        <v>400</v>
+      </c>
+      <c r="N45" s="3">
         <v>3700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E46" s="3">
         <v>24600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>24300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>20900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>20500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>1300</v>
@@ -2359,8 +2463,8 @@
       <c r="I47" s="3">
         <v>1300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+      <c r="J47" s="3">
+        <v>1300</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2368,14 +2472,14 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2383,16 +2487,19 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1200</v>
-      </c>
-      <c r="E48" s="3">
-        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
@@ -2407,31 +2514,34 @@
         <v>300</v>
       </c>
       <c r="J48" s="3">
+        <v>300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>2400</v>
       </c>
       <c r="O48" s="3">
         <v>2400</v>
       </c>
       <c r="P48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>2500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2607,7 +2726,7 @@
         <v>400</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E54" s="3">
         <v>26200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>22400</v>
       </c>
       <c r="M54" s="3">
         <v>22400</v>
       </c>
       <c r="N54" s="3">
+        <v>22400</v>
+      </c>
+      <c r="O54" s="3">
         <v>22500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,31 +2889,31 @@
         <v>1400</v>
       </c>
       <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1400</v>
       </c>
       <c r="N57" s="3">
         <v>1400</v>
@@ -2792,18 +2922,21 @@
         <v>1400</v>
       </c>
       <c r="P57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2844,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2853,35 +2989,35 @@
         <v>600</v>
       </c>
       <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
@@ -2891,60 +3027,66 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1500</v>
       </c>
       <c r="M60" s="3">
         <v>1500</v>
       </c>
       <c r="N60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="O60" s="3">
         <v>1400</v>
       </c>
       <c r="P60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -2956,7 +3098,7 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2965,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -2977,7 +3119,7 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -2985,16 +3127,19 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E62" s="3">
         <v>3000</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2300</v>
       </c>
       <c r="F62" s="3">
         <v>2300</v>
@@ -3003,7 +3148,7 @@
         <v>2300</v>
       </c>
       <c r="H62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="I62" s="3">
         <v>2500</v>
@@ -3015,13 +3160,13 @@
         <v>2500</v>
       </c>
       <c r="L62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M62" s="3">
         <v>2700</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E72" s="3">
         <v>20000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>19500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>17500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E76" s="3">
         <v>21100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E81" s="3">
         <v>500</v>
       </c>
       <c r="F81" s="3">
+        <v>500</v>
+      </c>
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3848,16 +4046,16 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>-400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4196,34 +4416,37 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>300</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4325,46 +4554,49 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>1200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>1900</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,17 +4614,18 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1700</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,32 +4812,35 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
       </c>
       <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4617,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>PBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,232 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E8" s="3">
         <v>5600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E9" s="3">
         <v>3800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1600</v>
       </c>
       <c r="H10" s="3">
         <v>1600</v>
       </c>
       <c r="I10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>900</v>
       </c>
       <c r="O10" s="3">
         <v>900</v>
       </c>
       <c r="P10" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q10" s="3">
         <v>1000</v>
@@ -888,8 +898,11 @@
       <c r="R10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1040,26 +1060,29 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E17" s="3">
         <v>4900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>4200</v>
       </c>
       <c r="P17" s="3">
         <v>4200</v>
       </c>
       <c r="Q17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R17" s="3">
         <v>4400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>800</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>400</v>
       </c>
       <c r="G18" s="3">
         <v>400</v>
       </c>
       <c r="H18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I18" s="3">
         <v>500</v>
       </c>
       <c r="J18" s="3">
+        <v>500</v>
+      </c>
+      <c r="K18" s="3">
         <v>900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,13 +1278,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1260,23 +1294,23 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>800</v>
       </c>
       <c r="E21" s="3">
+        <v>800</v>
+      </c>
+      <c r="F21" s="3">
         <v>600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>500</v>
       </c>
       <c r="G21" s="3">
         <v>500</v>
       </c>
       <c r="H21" s="3">
+        <v>500</v>
+      </c>
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-100</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,49 +1447,52 @@
         <v>800</v>
       </c>
       <c r="E23" s="3">
+        <v>800</v>
+      </c>
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>800</v>
       </c>
       <c r="K23" s="3">
         <v>800</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1457,26 +1503,26 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,49 +1606,52 @@
         <v>700</v>
       </c>
       <c r="E26" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F26" s="3">
         <v>500</v>
       </c>
       <c r="G26" s="3">
+        <v>500</v>
+      </c>
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1604,49 +1659,52 @@
         <v>700</v>
       </c>
       <c r="E27" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F27" s="3">
         <v>500</v>
       </c>
       <c r="G27" s="3">
+        <v>500</v>
+      </c>
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1706,8 +1767,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1719,22 +1780,22 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>2500</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-2900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-600</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,13 +1912,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -1860,23 +1930,23 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,49 +1977,52 @@
         <v>700</v>
       </c>
       <c r="E33" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F33" s="3">
         <v>500</v>
       </c>
       <c r="G33" s="3">
+        <v>500</v>
+      </c>
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,104 +2083,110 @@
         <v>700</v>
       </c>
       <c r="E35" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F35" s="3">
         <v>500</v>
       </c>
       <c r="G35" s="3">
+        <v>500</v>
+      </c>
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E41" s="3">
         <v>15600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2201,11 +2291,11 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2213,8 +2303,8 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E43" s="3">
         <v>11200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,108 +2436,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>400</v>
       </c>
       <c r="M45" s="3">
         <v>400</v>
       </c>
       <c r="N45" s="3">
+        <v>400</v>
+      </c>
+      <c r="O45" s="3">
         <v>3700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E46" s="3">
         <v>27100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>24600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>24300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>20100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>20500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2451,11 +2556,11 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>1300</v>
@@ -2466,8 +2571,8 @@
       <c r="J47" s="3">
         <v>1300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>1300</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -2475,14 +2580,14 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2499,10 +2607,10 @@
         <v>1100</v>
       </c>
       <c r="E48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
@@ -2517,31 +2625,34 @@
         <v>300</v>
       </c>
       <c r="K48" s="3">
+        <v>300</v>
+      </c>
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2400</v>
       </c>
       <c r="P48" s="3">
         <v>2400</v>
       </c>
       <c r="Q48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R48" s="3">
         <v>2500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2729,7 +2849,7 @@
         <v>400</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E54" s="3">
         <v>28600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>22400</v>
       </c>
       <c r="N54" s="3">
         <v>22400</v>
       </c>
       <c r="O54" s="3">
+        <v>22400</v>
+      </c>
+      <c r="P54" s="3">
         <v>22500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,43 +3010,44 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="E57" s="3">
         <v>1400</v>
       </c>
       <c r="F57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1400</v>
       </c>
       <c r="O57" s="3">
         <v>1400</v>
@@ -2925,22 +3056,25 @@
         <v>1400</v>
       </c>
       <c r="Q57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -2980,47 +3114,50 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
       </c>
       <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
@@ -3030,66 +3167,72 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1500</v>
       </c>
       <c r="N60" s="3">
         <v>1500</v>
       </c>
       <c r="O60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="P60" s="3">
         <v>1400</v>
       </c>
       <c r="Q60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1300</v>
-      </c>
-      <c r="E61" s="3">
-        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -3101,7 +3244,7 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3110,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
@@ -3122,7 +3265,7 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3130,19 +3273,22 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2300</v>
       </c>
       <c r="G62" s="3">
         <v>2300</v>
@@ -3151,7 +3297,7 @@
         <v>2300</v>
       </c>
       <c r="I62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="J62" s="3">
         <v>2500</v>
@@ -3163,13 +3309,13 @@
         <v>2500</v>
       </c>
       <c r="M62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N62" s="3">
         <v>2700</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E72" s="3">
         <v>20700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>19500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>20300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E76" s="3">
         <v>21800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,49 +4159,52 @@
         <v>700</v>
       </c>
       <c r="E81" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F81" s="3">
         <v>500</v>
       </c>
       <c r="G81" s="3">
+        <v>500</v>
+      </c>
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4049,16 +4248,16 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>-400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4419,34 +4640,37 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>300</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4557,46 +4787,49 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>1200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>1900</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4624,11 +4858,11 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1700</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,35 +5058,38 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>-100</v>
       </c>
       <c r="J100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>PBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="3">
         <v>6300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4000</v>
       </c>
       <c r="L8" s="3">
         <v>4600</v>
       </c>
       <c r="M8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O8" s="3">
         <v>3800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>4000</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>3900</v>
       </c>
       <c r="R8" s="3">
         <v>4000</v>
       </c>
       <c r="S8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="T8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F9" s="3">
         <v>4400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>3000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>3300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>3000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F10" s="3">
         <v>1900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1500</v>
       </c>
       <c r="H10" s="3">
         <v>1600</v>
       </c>
       <c r="I10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J10" s="3">
         <v>1600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L10" s="3">
         <v>1500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>900</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1000</v>
       </c>
       <c r="S10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1063,8 +1103,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1081,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5500</v>
+        <v>4200</v>
       </c>
       <c r="E17" s="3">
         <v>4900</v>
       </c>
       <c r="F17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H17" s="3">
         <v>4100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>4400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,44 +1345,46 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1332,61 +1400,73 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>800</v>
       </c>
       <c r="J21" s="3">
         <v>500</v>
       </c>
       <c r="K21" s="3">
+        <v>800</v>
+      </c>
+      <c r="L21" s="3">
+        <v>500</v>
+      </c>
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1518,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>500</v>
       </c>
       <c r="K23" s="3">
         <v>800</v>
       </c>
       <c r="L23" s="3">
+        <v>500</v>
+      </c>
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>800</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1500,35 +1592,35 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1544,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1770,11 +1892,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1783,25 +1905,25 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>2500</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-2900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-600</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,44 +2049,50 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2108,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,91 +2399,99 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F41" s="3">
         <v>16800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>15600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>15300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>15500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>14800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>15400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>15800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>16000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>15200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>13000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>13200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>11600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>12200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>12700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>13700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
@@ -2333,61 +2513,73 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F43" s="3">
         <v>11300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>11200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>9000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>10000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>9100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>7900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>7200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>6900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>5200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>6600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>6100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>6300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>6900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>6600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>6000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,114 +2631,132 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>400</v>
       </c>
       <c r="N45" s="3">
+        <v>500</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q45" s="3">
         <v>3700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E46" s="3">
         <v>28600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>28600</v>
+      </c>
+      <c r="G46" s="3">
         <v>27100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>24600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>26000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>24300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>23700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>23300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>23400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>20900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>19900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>19700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>21700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>20000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>20100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>20500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2559,14 +2769,14 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1300</v>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>1300</v>
@@ -2574,17 +2784,17 @@
       <c r="K47" s="3">
         <v>1300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
+      <c r="L47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M47" s="3">
+        <v>1300</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -2592,31 +2802,37 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
         <v>1100</v>
       </c>
       <c r="F48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H48" s="3">
         <v>1200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
@@ -2628,31 +2844,37 @@
         <v>300</v>
       </c>
       <c r="L48" s="3">
+        <v>300</v>
+      </c>
+      <c r="M48" s="3">
+        <v>300</v>
+      </c>
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,16 +3044,22 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -2852,10 +3092,10 @@
         <v>400</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>29900</v>
+      </c>
+      <c r="F54" s="3">
         <v>30100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>28600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>26200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>26600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>26300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>25700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>25300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>25400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>23300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>22500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>22400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>22400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>22500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>22600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>23100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,76 +3271,84 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1400</v>
       </c>
       <c r="Q57" s="3">
         <v>1400</v>
       </c>
       <c r="R57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -3117,128 +3385,146 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700</v>
+        <v>2300</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
       </c>
       <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>500</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
       </c>
       <c r="L59" s="3">
+        <v>500</v>
+      </c>
+      <c r="M59" s="3">
+        <v>400</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1900</v>
       </c>
       <c r="J60" s="3">
         <v>2100</v>
       </c>
       <c r="K60" s="3">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="L60" s="3">
         <v>2100</v>
       </c>
       <c r="M60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>700</v>
+      </c>
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1300</v>
-      </c>
-      <c r="F61" s="3">
-        <v>100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -3247,19 +3533,19 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
@@ -3268,16 +3554,22 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,25 +3577,25 @@
         <v>2700</v>
       </c>
       <c r="E62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G62" s="3">
         <v>2800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2300</v>
       </c>
       <c r="I62" s="3">
         <v>2300</v>
       </c>
       <c r="J62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="K62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="L62" s="3">
         <v>2500</v>
@@ -3312,16 +3604,16 @@
         <v>2500</v>
       </c>
       <c r="N62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P62" s="3">
         <v>2700</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F66" s="3">
         <v>7500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>4600</v>
-      </c>
-      <c r="K66" s="3">
-        <v>5100</v>
       </c>
       <c r="L66" s="3">
         <v>4600</v>
       </c>
       <c r="M66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O66" s="3">
         <v>4500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F72" s="3">
         <v>21400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>20700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>20000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>19500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>20700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>20300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>19600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>19100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>17500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>16800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>16900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>19600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>20100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>20300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>20600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F76" s="3">
         <v>22600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>21800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>21100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>20600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>21800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>21400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>20700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>20300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>18700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>18000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>18200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>20700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>21000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>21100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>21500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4251,19 +4649,19 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>-400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>300</v>
+      </c>
+      <c r="F89" s="3">
         <v>1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4643,34 +5085,40 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>300</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,13 +5229,19 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4790,46 +5250,52 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>1200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>1900</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4861,14 +5329,14 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1700</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5547,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,32 +5562,32 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5114,8 +5606,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="E102" s="3">
         <v>300</v>
       </c>
       <c r="F102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>300</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>PBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,270 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E9" s="3">
         <v>3200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="3">
         <v>1300</v>
       </c>
       <c r="F10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G10" s="3">
         <v>1900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1500</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1600</v>
       </c>
       <c r="K10" s="3">
         <v>1600</v>
       </c>
       <c r="L10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M10" s="3">
         <v>1500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>900</v>
       </c>
       <c r="R10" s="3">
         <v>900</v>
       </c>
       <c r="S10" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T10" s="3">
         <v>1000</v>
@@ -927,8 +936,11 @@
       <c r="U10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1109,26 +1128,29 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E17" s="3">
         <v>4200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>4200</v>
       </c>
       <c r="S17" s="3">
         <v>4200</v>
       </c>
       <c r="T17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="U17" s="3">
         <v>4400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>400</v>
       </c>
       <c r="J18" s="3">
         <v>400</v>
       </c>
       <c r="K18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L18" s="3">
         <v>500</v>
       </c>
       <c r="M18" s="3">
+        <v>500</v>
+      </c>
+      <c r="N18" s="3">
         <v>900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,22 +1379,23 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1371,23 +1404,23 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1406,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,58 +1451,61 @@
         <v>300</v>
       </c>
       <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>800</v>
       </c>
       <c r="G21" s="3">
         <v>800</v>
       </c>
       <c r="H21" s="3">
+        <v>800</v>
+      </c>
+      <c r="I21" s="3">
         <v>600</v>
-      </c>
-      <c r="I21" s="3">
-        <v>500</v>
       </c>
       <c r="J21" s="3">
         <v>500</v>
       </c>
       <c r="K21" s="3">
+        <v>500</v>
+      </c>
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,8 +1563,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1533,69 +1575,72 @@
         <v>300</v>
       </c>
       <c r="E23" s="3">
+        <v>300</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>800</v>
       </c>
       <c r="G23" s="3">
         <v>800</v>
       </c>
       <c r="H23" s="3">
+        <v>800</v>
+      </c>
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>800</v>
       </c>
       <c r="N23" s="3">
         <v>800</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1604,26 +1649,26 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>700</v>
       </c>
       <c r="G26" s="3">
         <v>700</v>
       </c>
       <c r="H26" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I26" s="3">
         <v>500</v>
       </c>
       <c r="J26" s="3">
+        <v>500</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>700</v>
       </c>
       <c r="G27" s="3">
         <v>700</v>
       </c>
       <c r="H27" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I27" s="3">
         <v>500</v>
       </c>
       <c r="J27" s="3">
+        <v>500</v>
+      </c>
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1898,8 +1958,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1911,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>2500</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-600</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,22 +2121,25 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -2079,23 +2148,23 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2114,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>700</v>
       </c>
       <c r="G33" s="3">
         <v>700</v>
       </c>
       <c r="H33" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I33" s="3">
         <v>500</v>
       </c>
       <c r="J33" s="3">
+        <v>500</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>700</v>
       </c>
       <c r="G35" s="3">
         <v>700</v>
       </c>
       <c r="H35" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I35" s="3">
         <v>500</v>
       </c>
       <c r="J35" s="3">
+        <v>500</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E41" s="3">
         <v>19000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2486,14 +2575,14 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2519,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E43" s="3">
         <v>9600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,126 +2732,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
       </c>
       <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
       </c>
       <c r="M45" s="3">
+        <v>300</v>
+      </c>
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
-      </c>
-      <c r="O45" s="3">
-        <v>400</v>
       </c>
       <c r="P45" s="3">
         <v>400</v>
       </c>
       <c r="Q45" s="3">
+        <v>400</v>
+      </c>
+      <c r="R45" s="3">
         <v>3700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E46" s="3">
         <v>28900</v>
-      </c>
-      <c r="E46" s="3">
-        <v>28600</v>
       </c>
       <c r="F46" s="3">
         <v>28600</v>
       </c>
       <c r="G46" s="3">
+        <v>28600</v>
+      </c>
+      <c r="H46" s="3">
         <v>27100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>24600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>24300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>21700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>20000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>20100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>20500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2775,11 +2879,11 @@
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>1300</v>
@@ -2790,8 +2894,8 @@
       <c r="M47" s="3">
         <v>1300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
+      <c r="N47" s="3">
+        <v>1300</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -2799,14 +2903,14 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -2814,16 +2918,19 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1100</v>
       </c>
       <c r="F48" s="3">
         <v>1100</v>
@@ -2832,10 +2939,10 @@
         <v>1100</v>
       </c>
       <c r="H48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I48" s="3">
         <v>1200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
@@ -2850,31 +2957,34 @@
         <v>300</v>
       </c>
       <c r="N48" s="3">
+        <v>300</v>
+      </c>
+      <c r="O48" s="3">
         <v>2000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>300</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2400</v>
       </c>
       <c r="S48" s="3">
         <v>2400</v>
       </c>
       <c r="T48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U48" s="3">
         <v>2500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3062,7 +3181,7 @@
         <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
@@ -3098,7 +3217,7 @@
         <v>400</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E54" s="3">
         <v>30200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>30100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>22400</v>
       </c>
       <c r="Q54" s="3">
         <v>22400</v>
       </c>
       <c r="R54" s="3">
+        <v>22400</v>
+      </c>
+      <c r="S54" s="3">
         <v>22500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,52 +3402,53 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="E57" s="3">
         <v>1900</v>
       </c>
       <c r="F57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G57" s="3">
         <v>2000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1400</v>
       </c>
       <c r="H57" s="3">
         <v>1400</v>
       </c>
       <c r="I57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1400</v>
       </c>
       <c r="R57" s="3">
         <v>1400</v>
@@ -3327,13 +3457,16 @@
         <v>1400</v>
       </c>
       <c r="T57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3344,14 +3477,14 @@
         <v>1300</v>
       </c>
       <c r="F58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -3391,56 +3524,59 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
@@ -3450,84 +3586,90 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E60" s="3">
         <v>5500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>3800</v>
       </c>
       <c r="F60" s="3">
         <v>3800</v>
       </c>
       <c r="G60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1500</v>
       </c>
       <c r="Q60" s="3">
         <v>1500</v>
       </c>
       <c r="R60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="S60" s="3">
         <v>1400</v>
       </c>
       <c r="T60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
         <v>700</v>
       </c>
       <c r="F61" s="3">
+        <v>700</v>
+      </c>
+      <c r="G61" s="3">
         <v>1000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1300</v>
-      </c>
-      <c r="H61" s="3">
-        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
@@ -3539,7 +3681,7 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3548,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
@@ -3560,7 +3702,7 @@
         <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -3568,13 +3710,16 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="E62" s="3">
         <v>2700</v>
@@ -3583,13 +3728,13 @@
         <v>2700</v>
       </c>
       <c r="G62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H62" s="3">
         <v>2800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2300</v>
       </c>
       <c r="J62" s="3">
         <v>2300</v>
@@ -3598,7 +3743,7 @@
         <v>2300</v>
       </c>
       <c r="L62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="M62" s="3">
         <v>2500</v>
@@ -3610,13 +3755,13 @@
         <v>2500</v>
       </c>
       <c r="P62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2700</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E66" s="3">
         <v>8900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E72" s="3">
         <v>20100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>21500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>21400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>20000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E76" s="3">
         <v>21300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>700</v>
       </c>
       <c r="G81" s="3">
         <v>700</v>
       </c>
       <c r="H81" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I81" s="3">
         <v>500</v>
       </c>
       <c r="J81" s="3">
+        <v>500</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4655,16 +4853,16 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>-400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5091,34 +5311,37 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>300</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,17 +5461,20 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>1200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5256,46 +5485,49 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>1200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>600</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>1900</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,13 +5549,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5335,11 +5568,11 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1700</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,13 +5795,16 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5568,29 +5813,29 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>-100</v>
       </c>
       <c r="M100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>PBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,176 +766,182 @@
         <v>5000</v>
       </c>
       <c r="E8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="3">
         <v>4500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E9" s="3">
         <v>3800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1300</v>
       </c>
       <c r="F10" s="3">
         <v>1300</v>
       </c>
       <c r="G10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H10" s="3">
         <v>1900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1600</v>
       </c>
       <c r="L10" s="3">
         <v>1600</v>
       </c>
       <c r="M10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1200</v>
-      </c>
-      <c r="R10" s="3">
-        <v>900</v>
       </c>
       <c r="S10" s="3">
         <v>900</v>
       </c>
       <c r="T10" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="U10" s="3">
         <v>1000</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1131,26 +1151,29 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E17" s="3">
         <v>4800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>4200</v>
       </c>
       <c r="T17" s="3">
         <v>4200</v>
       </c>
       <c r="U17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="V17" s="3">
         <v>4400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>400</v>
       </c>
       <c r="K18" s="3">
         <v>400</v>
       </c>
       <c r="L18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M18" s="3">
         <v>500</v>
       </c>
       <c r="N18" s="3">
+        <v>500</v>
+      </c>
+      <c r="O18" s="3">
         <v>900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,25 +1413,26 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1407,23 +1441,23 @@
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1442,70 +1476,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>300</v>
+        <v>2300</v>
       </c>
       <c r="E21" s="3">
         <v>300</v>
       </c>
       <c r="F21" s="3">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>800</v>
       </c>
       <c r="H21" s="3">
         <v>800</v>
       </c>
       <c r="I21" s="3">
+        <v>800</v>
+      </c>
+      <c r="J21" s="3">
         <v>600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>500</v>
       </c>
       <c r="K21" s="3">
         <v>500</v>
       </c>
       <c r="L21" s="3">
+        <v>500</v>
+      </c>
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
       <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>300</v>
+        <v>2300</v>
       </c>
       <c r="E23" s="3">
         <v>300</v>
       </c>
       <c r="F23" s="3">
+        <v>300</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>800</v>
       </c>
       <c r="H23" s="3">
         <v>800</v>
       </c>
       <c r="I23" s="3">
+        <v>800</v>
+      </c>
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>800</v>
       </c>
       <c r="O23" s="3">
         <v>800</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1637,13 +1683,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1652,26 +1698,26 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>700</v>
       </c>
       <c r="H26" s="3">
         <v>700</v>
       </c>
       <c r="I26" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J26" s="3">
         <v>500</v>
       </c>
       <c r="K26" s="3">
+        <v>500</v>
+      </c>
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>700</v>
       </c>
       <c r="H27" s="3">
         <v>700</v>
       </c>
       <c r="I27" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J27" s="3">
         <v>500</v>
       </c>
       <c r="K27" s="3">
+        <v>500</v>
+      </c>
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1961,8 +2022,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1974,22 +2035,22 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>2500</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-2900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-600</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,25 +2191,28 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -2151,23 +2221,23 @@
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>700</v>
       </c>
       <c r="H33" s="3">
         <v>700</v>
       </c>
       <c r="I33" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J33" s="3">
         <v>500</v>
       </c>
       <c r="K33" s="3">
+        <v>500</v>
+      </c>
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>700</v>
       </c>
       <c r="H35" s="3">
         <v>700</v>
       </c>
       <c r="I35" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J35" s="3">
         <v>500</v>
       </c>
       <c r="K35" s="3">
+        <v>500</v>
+      </c>
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E41" s="3">
         <v>16100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2578,14 +2668,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2611,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E43" s="3">
         <v>10400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,158 +2831,167 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
       </c>
       <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>400</v>
       </c>
       <c r="Q45" s="3">
         <v>400</v>
       </c>
       <c r="R45" s="3">
+        <v>400</v>
+      </c>
+      <c r="S45" s="3">
         <v>3700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E46" s="3">
         <v>26700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>28900</v>
-      </c>
-      <c r="F46" s="3">
-        <v>28600</v>
       </c>
       <c r="G46" s="3">
         <v>28600</v>
       </c>
       <c r="H46" s="3">
+        <v>28600</v>
+      </c>
+      <c r="I46" s="3">
         <v>27100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>24600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>23400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>21700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>20000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>20100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>20500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>1300</v>
@@ -2897,8 +3002,8 @@
       <c r="N47" s="3">
         <v>1300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
+      <c r="O47" s="3">
+        <v>1300</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -2906,14 +3011,14 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -2921,19 +3026,22 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1100</v>
       </c>
       <c r="G48" s="3">
         <v>1100</v>
@@ -2942,10 +3050,10 @@
         <v>1100</v>
       </c>
       <c r="I48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J48" s="3">
         <v>1200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
@@ -2960,31 +3068,34 @@
         <v>300</v>
       </c>
       <c r="O48" s="3">
+        <v>300</v>
+      </c>
+      <c r="P48" s="3">
         <v>2000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>300</v>
-      </c>
-      <c r="S48" s="3">
-        <v>2400</v>
       </c>
       <c r="T48" s="3">
         <v>2400</v>
       </c>
       <c r="U48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V48" s="3">
         <v>2500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,13 +3286,16 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -3184,7 +3304,7 @@
         <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -3220,7 +3340,7 @@
         <v>400</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E54" s="3">
         <v>27900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>30100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22500</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>22400</v>
       </c>
       <c r="R54" s="3">
         <v>22400</v>
       </c>
       <c r="S54" s="3">
+        <v>22400</v>
+      </c>
+      <c r="T54" s="3">
         <v>22500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>22600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>23100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,55 +3533,56 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1900</v>
       </c>
       <c r="F57" s="3">
         <v>1900</v>
       </c>
       <c r="G57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H57" s="3">
         <v>2000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1400</v>
       </c>
       <c r="I57" s="3">
         <v>1400</v>
       </c>
       <c r="J57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1400</v>
       </c>
       <c r="S57" s="3">
         <v>1400</v>
@@ -3460,18 +3591,21 @@
         <v>1400</v>
       </c>
       <c r="U57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>1300</v>
@@ -3480,14 +3614,14 @@
         <v>1300</v>
       </c>
       <c r="G58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -3527,59 +3661,62 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
       </c>
       <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
@@ -3589,90 +3726,96 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3800</v>
       </c>
       <c r="G60" s="3">
         <v>3800</v>
       </c>
       <c r="H60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1500</v>
       </c>
       <c r="R60" s="3">
         <v>1500</v>
       </c>
       <c r="S60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T60" s="3">
         <v>1400</v>
       </c>
       <c r="U60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
-      </c>
-      <c r="E61" s="3">
-        <v>700</v>
       </c>
       <c r="F61" s="3">
         <v>700</v>
       </c>
       <c r="G61" s="3">
+        <v>700</v>
+      </c>
+      <c r="H61" s="3">
         <v>1000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1300</v>
-      </c>
-      <c r="I61" s="3">
-        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
@@ -3684,7 +3827,7 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3693,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
@@ -3705,7 +3848,7 @@
         <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3722,7 +3868,7 @@
         <v>2400</v>
       </c>
       <c r="E62" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="F62" s="3">
         <v>2700</v>
@@ -3731,13 +3877,13 @@
         <v>2700</v>
       </c>
       <c r="H62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I62" s="3">
         <v>2800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2300</v>
       </c>
       <c r="K62" s="3">
         <v>2300</v>
@@ -3746,7 +3892,7 @@
         <v>2300</v>
       </c>
       <c r="M62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="N62" s="3">
         <v>2500</v>
@@ -3758,13 +3904,13 @@
         <v>2500</v>
       </c>
       <c r="Q62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R62" s="3">
         <v>2700</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E66" s="3">
         <v>6300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E72" s="3">
         <v>20300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>21500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>21400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>20700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>20000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E76" s="3">
         <v>21500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>700</v>
       </c>
       <c r="H81" s="3">
         <v>700</v>
       </c>
       <c r="I81" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J81" s="3">
         <v>500</v>
       </c>
       <c r="K81" s="3">
+        <v>500</v>
+      </c>
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4856,16 +5055,16 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>-400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5314,34 +5535,37 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>300</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,20 +5691,23 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5488,46 +5718,49 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>1200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>600</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>1900</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,17 +5783,18 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1700</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -5571,11 +5805,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1700</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,17 +6041,20 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5816,29 +6062,29 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>-100</v>
       </c>
       <c r="N100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>PBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,286 +665,296 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5000</v>
+        <v>5600</v>
       </c>
       <c r="E8" s="3">
         <v>5000</v>
       </c>
       <c r="F8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G8" s="3">
         <v>4500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E9" s="3">
         <v>3700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1300</v>
       </c>
       <c r="G10" s="3">
         <v>1300</v>
       </c>
       <c r="H10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I10" s="3">
         <v>1900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1600</v>
       </c>
       <c r="M10" s="3">
         <v>1600</v>
       </c>
       <c r="N10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O10" s="3">
         <v>1500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1200</v>
-      </c>
-      <c r="S10" s="3">
-        <v>900</v>
       </c>
       <c r="T10" s="3">
         <v>900</v>
       </c>
       <c r="U10" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="V10" s="3">
         <v>1000</v>
@@ -952,8 +962,11 @@
       <c r="W10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1154,26 +1174,29 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E17" s="3">
         <v>4600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>4200</v>
       </c>
       <c r="U17" s="3">
         <v>4200</v>
       </c>
       <c r="V17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="W17" s="3">
         <v>4400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>400</v>
       </c>
       <c r="L18" s="3">
         <v>400</v>
       </c>
       <c r="M18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N18" s="3">
         <v>500</v>
       </c>
       <c r="O18" s="3">
+        <v>500</v>
+      </c>
+      <c r="P18" s="3">
         <v>900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,28 +1447,29 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1444,23 +1478,23 @@
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1479,73 +1513,79 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E21" s="3">
         <v>2300</v>
-      </c>
-      <c r="E21" s="3">
-        <v>300</v>
       </c>
       <c r="F21" s="3">
         <v>300</v>
       </c>
       <c r="G21" s="3">
+        <v>300</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>800</v>
       </c>
       <c r="I21" s="3">
         <v>800</v>
       </c>
       <c r="J21" s="3">
+        <v>800</v>
+      </c>
+      <c r="K21" s="3">
         <v>600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>500</v>
       </c>
       <c r="L21" s="3">
         <v>500</v>
       </c>
       <c r="M21" s="3">
+        <v>500</v>
+      </c>
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-100</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,90 +1649,96 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E23" s="3">
         <v>2300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>300</v>
       </c>
       <c r="F23" s="3">
         <v>300</v>
       </c>
       <c r="G23" s="3">
+        <v>300</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>800</v>
       </c>
       <c r="I23" s="3">
         <v>800</v>
       </c>
       <c r="J23" s="3">
+        <v>800</v>
+      </c>
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>800</v>
       </c>
       <c r="P23" s="3">
         <v>800</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
@@ -1701,26 +1747,26 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E26" s="3">
         <v>2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>700</v>
       </c>
       <c r="I26" s="3">
         <v>700</v>
       </c>
       <c r="J26" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K26" s="3">
         <v>500</v>
       </c>
       <c r="L26" s="3">
+        <v>500</v>
+      </c>
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E27" s="3">
         <v>2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>700</v>
       </c>
       <c r="I27" s="3">
         <v>700</v>
       </c>
       <c r="J27" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K27" s="3">
         <v>500</v>
       </c>
       <c r="L27" s="3">
+        <v>500</v>
+      </c>
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,8 +2086,8 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2038,22 +2099,22 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>2500</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-2900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-600</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,28 +2261,31 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -2224,23 +2294,23 @@
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E33" s="3">
         <v>2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>700</v>
       </c>
       <c r="I33" s="3">
         <v>700</v>
       </c>
       <c r="J33" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K33" s="3">
         <v>500</v>
       </c>
       <c r="L33" s="3">
+        <v>500</v>
+      </c>
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E35" s="3">
         <v>2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>700</v>
       </c>
       <c r="I35" s="3">
         <v>700</v>
       </c>
       <c r="J35" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K35" s="3">
         <v>500</v>
       </c>
       <c r="L35" s="3">
+        <v>500</v>
+      </c>
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E41" s="3">
         <v>16500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2671,14 +2761,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2704,73 +2794,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E43" s="3">
         <v>10100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,138 +2930,147 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>500</v>
       </c>
       <c r="H45" s="3">
         <v>500</v>
       </c>
       <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>500</v>
       </c>
       <c r="M45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
       </c>
       <c r="O45" s="3">
+        <v>300</v>
+      </c>
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>400</v>
       </c>
       <c r="R45" s="3">
         <v>400</v>
       </c>
       <c r="S45" s="3">
+        <v>400</v>
+      </c>
+      <c r="T45" s="3">
         <v>3700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E46" s="3">
         <v>27400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28900</v>
-      </c>
-      <c r="G46" s="3">
-        <v>28600</v>
       </c>
       <c r="H46" s="3">
         <v>28600</v>
       </c>
       <c r="I46" s="3">
+        <v>28600</v>
+      </c>
+      <c r="J46" s="3">
         <v>27100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>24600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>23300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>23400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>20900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>21700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>20000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>20100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>20500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2994,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>1300</v>
@@ -3005,8 +3110,8 @@
       <c r="O47" s="3">
         <v>1300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
+      <c r="P47" s="3">
+        <v>1300</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
@@ -3014,14 +3119,14 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3029,22 +3134,25 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1100</v>
       </c>
       <c r="H48" s="3">
         <v>1100</v>
@@ -3053,10 +3161,10 @@
         <v>1100</v>
       </c>
       <c r="J48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
@@ -3071,31 +3179,34 @@
         <v>300</v>
       </c>
       <c r="P48" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q48" s="3">
         <v>2000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>300</v>
-      </c>
-      <c r="T48" s="3">
-        <v>2400</v>
       </c>
       <c r="U48" s="3">
         <v>2400</v>
       </c>
       <c r="V48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W48" s="3">
         <v>2500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3298,7 +3418,7 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -3307,7 +3427,7 @@
         <v>300</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
@@ -3343,7 +3463,7 @@
         <v>400</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E54" s="3">
         <v>28600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>30200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>29900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>30100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22500</v>
-      </c>
-      <c r="R54" s="3">
-        <v>22400</v>
       </c>
       <c r="S54" s="3">
         <v>22400</v>
       </c>
       <c r="T54" s="3">
+        <v>22400</v>
+      </c>
+      <c r="U54" s="3">
         <v>22500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>22600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>23100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,58 +3664,59 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1900</v>
       </c>
       <c r="G57" s="3">
         <v>1900</v>
       </c>
       <c r="H57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I57" s="3">
         <v>2000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1400</v>
       </c>
       <c r="J57" s="3">
         <v>1400</v>
       </c>
       <c r="K57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1400</v>
       </c>
       <c r="T57" s="3">
         <v>1400</v>
@@ -3594,13 +3725,16 @@
         <v>1400</v>
       </c>
       <c r="V57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W57" s="3">
         <v>1500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>1300</v>
@@ -3617,14 +3751,14 @@
         <v>1300</v>
       </c>
       <c r="H58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3673,53 +3810,53 @@
         <v>600</v>
       </c>
       <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>600</v>
       </c>
       <c r="K59" s="3">
+        <v>600</v>
+      </c>
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
@@ -3729,73 +3866,79 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3800</v>
       </c>
       <c r="H60" s="3">
         <v>3800</v>
       </c>
       <c r="I60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1500</v>
       </c>
       <c r="S60" s="3">
         <v>1500</v>
       </c>
       <c r="T60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="U60" s="3">
         <v>1400</v>
       </c>
       <c r="V60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W60" s="3">
         <v>1600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3803,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>600</v>
-      </c>
-      <c r="F61" s="3">
-        <v>700</v>
       </c>
       <c r="G61" s="3">
         <v>700</v>
       </c>
       <c r="H61" s="3">
+        <v>700</v>
+      </c>
+      <c r="I61" s="3">
         <v>1000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1300</v>
-      </c>
-      <c r="J61" s="3">
-        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -3830,7 +3973,7 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3839,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
@@ -3851,7 +3994,7 @@
         <v>100</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3871,7 +4017,7 @@
         <v>2400</v>
       </c>
       <c r="F62" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G62" s="3">
         <v>2700</v>
@@ -3880,13 +4026,13 @@
         <v>2700</v>
       </c>
       <c r="I62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J62" s="3">
         <v>2800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2300</v>
       </c>
       <c r="L62" s="3">
         <v>2300</v>
@@ -3895,7 +4041,7 @@
         <v>2300</v>
       </c>
       <c r="N62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="O62" s="3">
         <v>2500</v>
@@ -3907,13 +4053,13 @@
         <v>2500</v>
       </c>
       <c r="R62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S62" s="3">
         <v>2700</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E72" s="3">
         <v>22600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>21500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>21400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>20700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E76" s="3">
         <v>23800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E81" s="3">
         <v>2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>700</v>
       </c>
       <c r="I81" s="3">
         <v>700</v>
       </c>
       <c r="J81" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K81" s="3">
         <v>500</v>
       </c>
       <c r="L81" s="3">
+        <v>500</v>
+      </c>
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5058,16 +5257,16 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>-400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5538,34 +5759,37 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>300</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5703,14 +5933,14 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5721,46 +5951,49 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>1200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>600</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>1900</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5793,11 +6027,11 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1700</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -5808,11 +6042,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,11 +6299,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -6065,29 +6311,29 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>-100</v>
       </c>
       <c r="O100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>PBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,299 +665,309 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5600</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5000</v>
       </c>
       <c r="F8" s="3">
         <v>5000</v>
       </c>
       <c r="G8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H8" s="3">
         <v>4500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E9" s="3">
         <v>4100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1300</v>
       </c>
       <c r="H10" s="3">
         <v>1300</v>
       </c>
       <c r="I10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J10" s="3">
         <v>1900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1600</v>
       </c>
       <c r="N10" s="3">
         <v>1600</v>
       </c>
       <c r="O10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P10" s="3">
         <v>1500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1200</v>
-      </c>
-      <c r="T10" s="3">
-        <v>900</v>
       </c>
       <c r="U10" s="3">
         <v>900</v>
       </c>
       <c r="V10" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="W10" s="3">
         <v>1000</v>
@@ -965,8 +975,11 @@
       <c r="X10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1177,26 +1197,29 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E17" s="3">
         <v>10400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>4200</v>
       </c>
       <c r="V17" s="3">
         <v>4200</v>
       </c>
       <c r="W17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="X17" s="3">
         <v>4400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>400</v>
       </c>
       <c r="M18" s="3">
         <v>400</v>
       </c>
       <c r="N18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O18" s="3">
         <v>500</v>
       </c>
       <c r="P18" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,22 +1491,22 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1481,23 +1515,23 @@
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1516,76 +1550,82 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>300</v>
       </c>
       <c r="G21" s="3">
         <v>300</v>
       </c>
       <c r="H21" s="3">
+        <v>300</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>800</v>
       </c>
       <c r="J21" s="3">
         <v>800</v>
       </c>
       <c r="K21" s="3">
+        <v>800</v>
+      </c>
+      <c r="L21" s="3">
         <v>600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>500</v>
       </c>
       <c r="M21" s="3">
         <v>500</v>
       </c>
       <c r="N21" s="3">
+        <v>500</v>
+      </c>
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>800</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-100</v>
       </c>
       <c r="U21" s="3">
         <v>-100</v>
       </c>
       <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>300</v>
       </c>
       <c r="G23" s="3">
         <v>300</v>
       </c>
       <c r="H23" s="3">
+        <v>300</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>800</v>
       </c>
       <c r="J23" s="3">
         <v>800</v>
       </c>
       <c r="K23" s="3">
+        <v>800</v>
+      </c>
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>800</v>
       </c>
       <c r="Q23" s="3">
         <v>800</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1729,19 +1775,19 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -1750,26 +1796,26 @@
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>700</v>
       </c>
       <c r="J26" s="3">
         <v>700</v>
       </c>
       <c r="K26" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L26" s="3">
         <v>500</v>
       </c>
       <c r="M26" s="3">
+        <v>500</v>
+      </c>
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>700</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>700</v>
       </c>
       <c r="J27" s="3">
         <v>700</v>
       </c>
       <c r="K27" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L27" s="3">
         <v>500</v>
       </c>
       <c r="M27" s="3">
+        <v>500</v>
+      </c>
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,37 +2118,40 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2102,22 +2163,22 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>2500</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-2900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-600</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,22 +2343,22 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -2297,23 +2367,23 @@
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2332,76 +2402,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>700</v>
       </c>
       <c r="J33" s="3">
         <v>700</v>
       </c>
       <c r="K33" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L33" s="3">
         <v>500</v>
       </c>
       <c r="M33" s="3">
+        <v>500</v>
+      </c>
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>700</v>
       </c>
       <c r="J35" s="3">
         <v>700</v>
       </c>
       <c r="K35" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L35" s="3">
         <v>500</v>
       </c>
       <c r="M35" s="3">
+        <v>500</v>
+      </c>
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E41" s="3">
         <v>17500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2764,14 +2854,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
+      <c r="N42" s="3">
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2797,76 +2887,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,144 +3029,153 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
       </c>
       <c r="I45" s="3">
         <v>500</v>
       </c>
       <c r="J45" s="3">
+        <v>500</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>500</v>
       </c>
       <c r="N45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
       </c>
       <c r="P45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
-      </c>
-      <c r="R45" s="3">
-        <v>400</v>
       </c>
       <c r="S45" s="3">
         <v>400</v>
       </c>
       <c r="T45" s="3">
+        <v>400</v>
+      </c>
+      <c r="U45" s="3">
         <v>3700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E46" s="3">
         <v>22800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>28600</v>
       </c>
       <c r="I46" s="3">
         <v>28600</v>
       </c>
       <c r="J46" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K46" s="3">
         <v>27100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>23700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>23300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>20900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>21700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>20000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>20100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>20500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3102,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>1300</v>
@@ -3113,8 +3218,8 @@
       <c r="P47" s="3">
         <v>1300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
+      <c r="Q47" s="3">
+        <v>1300</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
@@ -3122,14 +3227,14 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,16 +3254,16 @@
         <v>700</v>
       </c>
       <c r="E48" s="3">
+        <v>700</v>
+      </c>
+      <c r="F48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1100</v>
       </c>
       <c r="I48" s="3">
         <v>1100</v>
@@ -3164,10 +3272,10 @@
         <v>1100</v>
       </c>
       <c r="K48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L48" s="3">
         <v>1200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
@@ -3182,31 +3290,34 @@
         <v>300</v>
       </c>
       <c r="Q48" s="3">
+        <v>300</v>
+      </c>
+      <c r="R48" s="3">
         <v>2000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>300</v>
-      </c>
-      <c r="U48" s="3">
-        <v>2400</v>
       </c>
       <c r="V48" s="3">
         <v>2400</v>
       </c>
       <c r="W48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="X48" s="3">
         <v>2500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3421,7 +3541,7 @@
         <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -3430,7 +3550,7 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
@@ -3466,7 +3586,7 @@
         <v>400</v>
       </c>
       <c r="U52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E54" s="3">
         <v>23900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>27900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>30200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>29900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>30100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22500</v>
-      </c>
-      <c r="S54" s="3">
-        <v>22400</v>
       </c>
       <c r="T54" s="3">
         <v>22400</v>
       </c>
       <c r="U54" s="3">
+        <v>22400</v>
+      </c>
+      <c r="V54" s="3">
         <v>22500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>22600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>23100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,61 +3795,62 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1900</v>
       </c>
       <c r="H57" s="3">
         <v>1900</v>
       </c>
       <c r="I57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J57" s="3">
         <v>2000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1400</v>
       </c>
       <c r="K57" s="3">
         <v>1400</v>
       </c>
       <c r="L57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1400</v>
       </c>
       <c r="U57" s="3">
         <v>1400</v>
@@ -3728,24 +3859,27 @@
         <v>1400</v>
       </c>
       <c r="W57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X57" s="3">
         <v>1500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>1300</v>
@@ -3754,14 +3888,14 @@
         <v>1300</v>
       </c>
       <c r="I58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3813,53 +3950,53 @@
         <v>600</v>
       </c>
       <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
       </c>
       <c r="L59" s="3">
+        <v>600</v>
+      </c>
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
@@ -3869,76 +4006,82 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3800</v>
       </c>
       <c r="I60" s="3">
         <v>3800</v>
       </c>
       <c r="J60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1500</v>
       </c>
       <c r="T60" s="3">
         <v>1500</v>
       </c>
       <c r="U60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="V60" s="3">
         <v>1400</v>
       </c>
       <c r="W60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X60" s="3">
         <v>1600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3949,22 +4092,22 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>600</v>
-      </c>
-      <c r="G61" s="3">
-        <v>700</v>
       </c>
       <c r="H61" s="3">
         <v>700</v>
       </c>
       <c r="I61" s="3">
+        <v>700</v>
+      </c>
+      <c r="J61" s="3">
         <v>1000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1300</v>
-      </c>
-      <c r="K61" s="3">
-        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -3976,7 +4119,7 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3985,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>100</v>
@@ -3997,7 +4140,7 @@
         <v>100</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
@@ -4005,13 +4148,16 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E62" s="3">
         <v>2400</v>
@@ -4020,7 +4166,7 @@
         <v>2400</v>
       </c>
       <c r="G62" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="H62" s="3">
         <v>2700</v>
@@ -4029,13 +4175,13 @@
         <v>2700</v>
       </c>
       <c r="J62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2300</v>
       </c>
       <c r="M62" s="3">
         <v>2300</v>
@@ -4044,7 +4190,7 @@
         <v>2300</v>
       </c>
       <c r="O62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="P62" s="3">
         <v>2500</v>
@@ -4056,13 +4202,13 @@
         <v>2500</v>
       </c>
       <c r="S62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T62" s="3">
         <v>2700</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E72" s="3">
         <v>17700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>22600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>21500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>21400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>20600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E76" s="3">
         <v>18900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>700</v>
       </c>
       <c r="J81" s="3">
         <v>700</v>
       </c>
       <c r="K81" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L81" s="3">
         <v>500</v>
       </c>
       <c r="M81" s="3">
+        <v>500</v>
+      </c>
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5260,16 +5459,16 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5762,34 +5983,37 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>300</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5936,14 +6166,14 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5954,46 +6184,49 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>1200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>600</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>1900</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,23 +6251,24 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1700</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -6045,11 +6279,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,23 +6533,26 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -6314,29 +6560,29 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1700</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>-100</v>
       </c>
       <c r="P100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>PBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,111 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -774,70 +777,73 @@
         <v>5000</v>
       </c>
       <c r="E8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="3">
         <v>5600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5000</v>
       </c>
       <c r="G8" s="3">
         <v>5000</v>
       </c>
       <c r="H8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I8" s="3">
         <v>4500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -845,70 +851,73 @@
         <v>3800</v>
       </c>
       <c r="E9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F9" s="3">
         <v>4100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,61 +925,61 @@
         <v>1200</v>
       </c>
       <c r="E10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F10" s="3">
         <v>1500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1300</v>
       </c>
       <c r="I10" s="3">
         <v>1300</v>
       </c>
       <c r="J10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1600</v>
       </c>
       <c r="O10" s="3">
         <v>1600</v>
       </c>
       <c r="P10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1200</v>
-      </c>
-      <c r="U10" s="3">
-        <v>900</v>
       </c>
       <c r="V10" s="3">
         <v>900</v>
       </c>
       <c r="W10" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="X10" s="3">
         <v>1000</v>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1200,26 +1219,29 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,8 +1338,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1322,70 +1348,73 @@
         <v>4700</v>
       </c>
       <c r="E17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F17" s="3">
         <v>10400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
-      </c>
-      <c r="V17" s="3">
-        <v>4200</v>
       </c>
       <c r="W17" s="3">
         <v>4200</v>
       </c>
       <c r="X17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>4400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,70 +1422,73 @@
         <v>300</v>
       </c>
       <c r="E18" s="3">
+        <v>300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>400</v>
       </c>
       <c r="N18" s="3">
         <v>400</v>
       </c>
       <c r="O18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P18" s="3">
         <v>500</v>
       </c>
       <c r="Q18" s="3">
+        <v>500</v>
+      </c>
+      <c r="R18" s="3">
         <v>900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1494,22 +1527,22 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -1518,23 +1551,23 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1553,79 +1586,85 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>300</v>
       </c>
       <c r="H21" s="3">
         <v>300</v>
       </c>
       <c r="I21" s="3">
+        <v>300</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>800</v>
       </c>
       <c r="K21" s="3">
         <v>800</v>
       </c>
       <c r="L21" s="3">
+        <v>800</v>
+      </c>
+      <c r="M21" s="3">
         <v>600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>500</v>
       </c>
       <c r="N21" s="3">
         <v>500</v>
       </c>
       <c r="O21" s="3">
+        <v>500</v>
+      </c>
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>800</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>300</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-100</v>
       </c>
       <c r="V21" s="3">
         <v>-100</v>
       </c>
       <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,102 +1734,108 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>300</v>
       </c>
       <c r="H23" s="3">
         <v>300</v>
       </c>
       <c r="I23" s="3">
+        <v>300</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>800</v>
       </c>
       <c r="K23" s="3">
         <v>800</v>
       </c>
       <c r="L23" s="3">
+        <v>800</v>
+      </c>
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>800</v>
       </c>
       <c r="R23" s="3">
         <v>800</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -1799,26 +1844,26 @@
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1837,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>700</v>
       </c>
       <c r="K26" s="3">
         <v>700</v>
       </c>
       <c r="L26" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M26" s="3">
         <v>500</v>
       </c>
       <c r="N26" s="3">
+        <v>500</v>
+      </c>
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>700</v>
       </c>
       <c r="K27" s="3">
         <v>700</v>
       </c>
       <c r="L27" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M27" s="3">
         <v>500</v>
       </c>
       <c r="N27" s="3">
+        <v>500</v>
+      </c>
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2147,14 +2207,14 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2166,22 +2226,22 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>2500</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-2900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-600</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2346,22 +2415,22 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
@@ -2370,23 +2439,23 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2405,79 +2474,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>700</v>
       </c>
       <c r="K33" s="3">
         <v>700</v>
       </c>
       <c r="L33" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M33" s="3">
         <v>500</v>
       </c>
       <c r="N33" s="3">
+        <v>500</v>
+      </c>
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>700</v>
       </c>
       <c r="K35" s="3">
         <v>700</v>
       </c>
       <c r="L35" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M35" s="3">
         <v>500</v>
       </c>
       <c r="N35" s="3">
+        <v>500</v>
+      </c>
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E41" s="3">
         <v>15400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2857,14 +2946,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
+      <c r="O42" s="3">
+        <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2890,79 +2979,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E43" s="3">
         <v>5000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,150 +3127,159 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
       </c>
       <c r="K45" s="3">
+        <v>500</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>500</v>
       </c>
       <c r="O45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
       </c>
       <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
-      </c>
-      <c r="S45" s="3">
-        <v>400</v>
       </c>
       <c r="T45" s="3">
         <v>400</v>
       </c>
       <c r="U45" s="3">
+        <v>400</v>
+      </c>
+      <c r="V45" s="3">
         <v>3700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E46" s="3">
         <v>21000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>27400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>26700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>28900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>28600</v>
       </c>
       <c r="J46" s="3">
         <v>28600</v>
       </c>
       <c r="K46" s="3">
+        <v>28600</v>
+      </c>
+      <c r="L46" s="3">
         <v>27100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>23700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>23400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>20900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>19700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>21700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>20000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>20100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>20500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3210,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>1300</v>
@@ -3221,8 +3325,8 @@
       <c r="Q47" s="3">
         <v>1300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
+      <c r="R47" s="3">
+        <v>1300</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
@@ -3230,14 +3334,14 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3" t="s">
+      <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3245,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3257,16 +3364,16 @@
         <v>700</v>
       </c>
       <c r="F48" s="3">
+        <v>700</v>
+      </c>
+      <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1100</v>
       </c>
       <c r="J48" s="3">
         <v>1100</v>
@@ -3275,10 +3382,10 @@
         <v>1100</v>
       </c>
       <c r="L48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M48" s="3">
         <v>1200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>300</v>
@@ -3293,31 +3400,34 @@
         <v>300</v>
       </c>
       <c r="R48" s="3">
+        <v>300</v>
+      </c>
+      <c r="S48" s="3">
         <v>2000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>300</v>
-      </c>
-      <c r="V48" s="3">
-        <v>2400</v>
       </c>
       <c r="W48" s="3">
         <v>2400</v>
       </c>
       <c r="X48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Y48" s="3">
         <v>2500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3544,7 +3663,7 @@
         <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -3553,7 +3672,7 @@
         <v>300</v>
       </c>
       <c r="J52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
@@ -3589,7 +3708,7 @@
         <v>400</v>
       </c>
       <c r="V52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E54" s="3">
         <v>22100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>23900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>30200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>29900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>30100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22500</v>
-      </c>
-      <c r="T54" s="3">
-        <v>22400</v>
       </c>
       <c r="U54" s="3">
         <v>22400</v>
       </c>
       <c r="V54" s="3">
+        <v>22400</v>
+      </c>
+      <c r="W54" s="3">
         <v>22500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>22600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>23100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,64 +3925,65 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1900</v>
       </c>
       <c r="I57" s="3">
         <v>1900</v>
       </c>
       <c r="J57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1400</v>
       </c>
       <c r="L57" s="3">
         <v>1400</v>
       </c>
       <c r="M57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1500</v>
-      </c>
-      <c r="U57" s="3">
-        <v>1400</v>
       </c>
       <c r="V57" s="3">
         <v>1400</v>
@@ -3862,27 +3992,30 @@
         <v>1400</v>
       </c>
       <c r="X57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y57" s="3">
         <v>1500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>1300</v>
@@ -3891,14 +4024,14 @@
         <v>1300</v>
       </c>
       <c r="J58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -3938,13 +4071,16 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
@@ -3953,53 +4089,53 @@
         <v>600</v>
       </c>
       <c r="G59" s="3">
+        <v>600</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
       </c>
       <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
@@ -4009,79 +4145,85 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3800</v>
       </c>
       <c r="J60" s="3">
         <v>3800</v>
       </c>
       <c r="K60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1500</v>
       </c>
       <c r="U60" s="3">
         <v>1500</v>
       </c>
       <c r="V60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="W60" s="3">
         <v>1400</v>
       </c>
       <c r="X60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4095,22 +4237,22 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>700</v>
       </c>
       <c r="I61" s="3">
         <v>700</v>
       </c>
       <c r="J61" s="3">
+        <v>700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1300</v>
-      </c>
-      <c r="L61" s="3">
-        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
@@ -4122,7 +4264,7 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -4131,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>100</v>
@@ -4143,7 +4285,7 @@
         <v>100</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
@@ -4151,16 +4293,19 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2300</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2400</v>
       </c>
       <c r="F62" s="3">
         <v>2400</v>
@@ -4169,7 +4314,7 @@
         <v>2400</v>
       </c>
       <c r="H62" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="I62" s="3">
         <v>2700</v>
@@ -4178,13 +4323,13 @@
         <v>2700</v>
       </c>
       <c r="K62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L62" s="3">
         <v>2800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3000</v>
-      </c>
-      <c r="M62" s="3">
-        <v>2300</v>
       </c>
       <c r="N62" s="3">
         <v>2300</v>
@@ -4193,7 +4338,7 @@
         <v>2300</v>
       </c>
       <c r="P62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="Q62" s="3">
         <v>2500</v>
@@ -4205,13 +4350,13 @@
         <v>2500</v>
       </c>
       <c r="T62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U62" s="3">
         <v>2700</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E72" s="3">
         <v>16300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>22600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>20100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>21500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>21400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>20300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>20600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E76" s="3">
         <v>17400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>700</v>
       </c>
       <c r="K81" s="3">
         <v>700</v>
       </c>
       <c r="L81" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M81" s="3">
         <v>500</v>
       </c>
       <c r="N81" s="3">
+        <v>500</v>
+      </c>
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5462,16 +5660,16 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>-400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5986,34 +6206,37 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>300</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6169,14 +6398,14 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -6187,46 +6416,49 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>1200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>600</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>1900</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6261,17 +6494,17 @@
         <v>-1700</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1700</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -6282,11 +6515,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,26 +6778,29 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -6563,29 +6808,29 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
       </c>
       <c r="Q100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1800</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6607,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>PBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,324 +665,334 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="E8" s="3">
         <v>5000</v>
       </c>
       <c r="F8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G8" s="3">
         <v>5600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5000</v>
       </c>
       <c r="H8" s="3">
         <v>5000</v>
       </c>
       <c r="I8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J8" s="3">
         <v>4500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="E9" s="3">
         <v>3800</v>
       </c>
       <c r="F9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G9" s="3">
         <v>4100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E10" s="3">
         <v>1200</v>
       </c>
       <c r="F10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G10" s="3">
         <v>1500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1300</v>
       </c>
       <c r="J10" s="3">
         <v>1300</v>
       </c>
       <c r="K10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L10" s="3">
         <v>1900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1500</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1600</v>
       </c>
       <c r="P10" s="3">
         <v>1600</v>
       </c>
       <c r="Q10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R10" s="3">
         <v>1500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1200</v>
-      </c>
-      <c r="V10" s="3">
-        <v>900</v>
       </c>
       <c r="W10" s="3">
         <v>900</v>
       </c>
       <c r="X10" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Y10" s="3">
         <v>1000</v>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1222,26 +1242,29 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="E17" s="3">
         <v>4700</v>
       </c>
       <c r="F17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G17" s="3">
         <v>10400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1300</v>
-      </c>
-      <c r="W17" s="3">
-        <v>4200</v>
       </c>
       <c r="X17" s="3">
         <v>4200</v>
       </c>
       <c r="Y17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Z17" s="3">
         <v>4400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E18" s="3">
         <v>300</v>
       </c>
       <c r="F18" s="3">
+        <v>300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>400</v>
       </c>
       <c r="O18" s="3">
         <v>400</v>
       </c>
       <c r="P18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q18" s="3">
         <v>500</v>
       </c>
       <c r="R18" s="3">
+        <v>500</v>
+      </c>
+      <c r="S18" s="3">
         <v>900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,13 +1548,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1530,22 +1564,22 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
@@ -1554,23 +1588,23 @@
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1589,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,73 +1635,76 @@
         <v>300</v>
       </c>
       <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>300</v>
       </c>
       <c r="I21" s="3">
         <v>300</v>
       </c>
       <c r="J21" s="3">
+        <v>300</v>
+      </c>
+      <c r="K21" s="3">
         <v>200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>800</v>
       </c>
       <c r="L21" s="3">
         <v>800</v>
       </c>
       <c r="M21" s="3">
+        <v>800</v>
+      </c>
+      <c r="N21" s="3">
         <v>600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>500</v>
       </c>
       <c r="O21" s="3">
         <v>500</v>
       </c>
       <c r="P21" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>800</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>300</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-100</v>
       </c>
       <c r="W21" s="3">
         <v>-100</v>
       </c>
       <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,8 +1777,11 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1746,73 +1789,76 @@
         <v>300</v>
       </c>
       <c r="E23" s="3">
+        <v>300</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>300</v>
       </c>
       <c r="I23" s="3">
         <v>300</v>
       </c>
       <c r="J23" s="3">
+        <v>300</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>800</v>
       </c>
       <c r="L23" s="3">
         <v>800</v>
       </c>
       <c r="M23" s="3">
+        <v>800</v>
+      </c>
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>800</v>
       </c>
       <c r="S23" s="3">
         <v>800</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1820,25 +1866,25 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
@@ -1847,26 +1893,26 @@
         <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>700</v>
       </c>
       <c r="L26" s="3">
         <v>700</v>
       </c>
       <c r="M26" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N26" s="3">
         <v>500</v>
       </c>
       <c r="O26" s="3">
+        <v>500</v>
+      </c>
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>700</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>700</v>
       </c>
       <c r="L27" s="3">
         <v>700</v>
       </c>
       <c r="M27" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N27" s="3">
         <v>500</v>
       </c>
       <c r="O27" s="3">
+        <v>500</v>
+      </c>
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2210,14 +2271,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2229,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>2500</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-2900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-600</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,13 +2470,16 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2418,22 +2488,22 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
@@ -2442,23 +2512,23 @@
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>700</v>
       </c>
       <c r="L33" s="3">
         <v>700</v>
       </c>
       <c r="M33" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N33" s="3">
         <v>500</v>
       </c>
       <c r="O33" s="3">
+        <v>500</v>
+      </c>
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>700</v>
       </c>
       <c r="L35" s="3">
         <v>700</v>
       </c>
       <c r="M35" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N35" s="3">
         <v>500</v>
       </c>
       <c r="O35" s="3">
+        <v>500</v>
+      </c>
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E41" s="3">
         <v>13200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>12700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2949,14 +3039,14 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
+      <c r="P42" s="3">
+        <v>0</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2982,82 +3072,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E43" s="3">
         <v>5500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3139,147 +3238,153 @@
         <v>500</v>
       </c>
       <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
+        <v>500</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>500</v>
       </c>
       <c r="O45" s="3">
         <v>500</v>
       </c>
       <c r="P45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
       </c>
       <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
-      </c>
-      <c r="T45" s="3">
-        <v>400</v>
       </c>
       <c r="U45" s="3">
         <v>400</v>
       </c>
       <c r="V45" s="3">
+        <v>400</v>
+      </c>
+      <c r="W45" s="3">
         <v>3700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E46" s="3">
         <v>19100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>22800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>27400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28900</v>
-      </c>
-      <c r="J46" s="3">
-        <v>28600</v>
       </c>
       <c r="K46" s="3">
         <v>28600</v>
       </c>
       <c r="L46" s="3">
+        <v>28600</v>
+      </c>
+      <c r="M46" s="3">
         <v>27100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>24300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>23300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>23400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>20900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>19900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>19700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>21700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>20000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>20100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>20500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3317,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>1300</v>
@@ -3328,8 +3433,8 @@
       <c r="R47" s="3">
         <v>1300</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
+      <c r="S47" s="3">
+        <v>1300</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
@@ -3337,14 +3442,14 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
-      <c r="W47" s="3" t="s">
+      <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3352,13 +3457,16 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
@@ -3367,16 +3475,16 @@
         <v>700</v>
       </c>
       <c r="G48" s="3">
+        <v>700</v>
+      </c>
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1100</v>
       </c>
       <c r="K48" s="3">
         <v>1100</v>
@@ -3385,10 +3493,10 @@
         <v>1100</v>
       </c>
       <c r="M48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N48" s="3">
         <v>1200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>300</v>
       </c>
       <c r="O48" s="3">
         <v>300</v>
@@ -3403,31 +3511,34 @@
         <v>300</v>
       </c>
       <c r="S48" s="3">
+        <v>300</v>
+      </c>
+      <c r="T48" s="3">
         <v>2000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>300</v>
-      </c>
-      <c r="W48" s="3">
-        <v>2400</v>
       </c>
       <c r="X48" s="3">
         <v>2400</v>
       </c>
       <c r="Y48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Z48" s="3">
         <v>2500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,13 +3765,16 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
@@ -3666,7 +3786,7 @@
         <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -3675,7 +3795,7 @@
         <v>300</v>
       </c>
       <c r="K52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
@@ -3711,7 +3831,7 @@
         <v>400</v>
       </c>
       <c r="W52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E54" s="3">
         <v>20200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>23900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>30200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>29900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>22500</v>
-      </c>
-      <c r="U54" s="3">
-        <v>22400</v>
       </c>
       <c r="V54" s="3">
         <v>22400</v>
       </c>
       <c r="W54" s="3">
+        <v>22400</v>
+      </c>
+      <c r="X54" s="3">
         <v>22500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>22600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>23100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,67 +4056,68 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1900</v>
       </c>
       <c r="J57" s="3">
         <v>1900</v>
       </c>
       <c r="K57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L57" s="3">
         <v>2000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1400</v>
       </c>
       <c r="M57" s="3">
         <v>1400</v>
       </c>
       <c r="N57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1500</v>
-      </c>
-      <c r="V57" s="3">
-        <v>1400</v>
       </c>
       <c r="W57" s="3">
         <v>1400</v>
@@ -3995,13 +4126,16 @@
         <v>1400</v>
       </c>
       <c r="Y57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z57" s="3">
         <v>1500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4011,14 +4145,14 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>1300</v>
@@ -4027,14 +4161,14 @@
         <v>1300</v>
       </c>
       <c r="K58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -4074,16 +4208,19 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
@@ -4092,53 +4229,53 @@
         <v>600</v>
       </c>
       <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>600</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
       </c>
       <c r="N59" s="3">
+        <v>600</v>
+      </c>
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
       <c r="X59" s="3">
         <v>0</v>
       </c>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4157,73 +4297,76 @@
         <v>2200</v>
       </c>
       <c r="E60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3800</v>
       </c>
       <c r="K60" s="3">
         <v>3800</v>
       </c>
       <c r="L60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1500</v>
       </c>
       <c r="V60" s="3">
         <v>1500</v>
       </c>
       <c r="W60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="X60" s="3">
         <v>1400</v>
       </c>
       <c r="Y60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z60" s="3">
         <v>1600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4240,22 +4383,22 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>700</v>
       </c>
       <c r="J61" s="3">
         <v>700</v>
       </c>
       <c r="K61" s="3">
+        <v>700</v>
+      </c>
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1300</v>
-      </c>
-      <c r="M61" s="3">
-        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
@@ -4267,7 +4410,7 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -4276,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>100</v>
@@ -4288,7 +4431,7 @@
         <v>100</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
@@ -4296,19 +4439,22 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2300</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2400</v>
       </c>
       <c r="G62" s="3">
         <v>2400</v>
@@ -4317,7 +4463,7 @@
         <v>2400</v>
       </c>
       <c r="I62" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="J62" s="3">
         <v>2700</v>
@@ -4326,13 +4472,13 @@
         <v>2700</v>
       </c>
       <c r="L62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M62" s="3">
         <v>2800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>2300</v>
       </c>
       <c r="O62" s="3">
         <v>2300</v>
@@ -4341,7 +4487,7 @@
         <v>2300</v>
       </c>
       <c r="Q62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="R62" s="3">
         <v>2500</v>
@@ -4353,13 +4499,13 @@
         <v>2500</v>
       </c>
       <c r="U62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V62" s="3">
         <v>2700</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E72" s="3">
         <v>14800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>22600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>20300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>20100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>21500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>20100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>20300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>20600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E76" s="3">
         <v>15900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>700</v>
       </c>
       <c r="L81" s="3">
         <v>700</v>
       </c>
       <c r="M81" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N81" s="3">
         <v>500</v>
       </c>
       <c r="O81" s="3">
+        <v>500</v>
+      </c>
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5663,16 +5862,16 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>-400</v>
-      </c>
-      <c r="S83" s="3">
-        <v>200</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6209,34 +6430,37 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>300</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6401,14 +6631,14 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -6419,46 +6649,49 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>1200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>600</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>1900</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,29 +6718,30 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-1700</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1700</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -6518,11 +6752,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,29 +7024,32 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -6811,29 +7057,29 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1700</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
       </c>
       <c r="R100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1800</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>PBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,199 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4800</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5000</v>
       </c>
       <c r="F8" s="3">
         <v>5000</v>
       </c>
       <c r="G8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H8" s="3">
         <v>5600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5000</v>
       </c>
       <c r="I8" s="3">
         <v>5000</v>
       </c>
       <c r="J8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,144 +865,147 @@
         <v>3500</v>
       </c>
       <c r="E9" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="F9" s="3">
         <v>3800</v>
       </c>
       <c r="G9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H9" s="3">
         <v>4100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1200</v>
       </c>
       <c r="F10" s="3">
         <v>1200</v>
       </c>
       <c r="G10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1300</v>
       </c>
       <c r="K10" s="3">
         <v>1300</v>
       </c>
       <c r="L10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M10" s="3">
         <v>1900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1500</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1600</v>
       </c>
       <c r="Q10" s="3">
         <v>1600</v>
       </c>
       <c r="R10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S10" s="3">
         <v>1500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1200</v>
-      </c>
-      <c r="W10" s="3">
-        <v>900</v>
       </c>
       <c r="X10" s="3">
         <v>900</v>
       </c>
       <c r="Y10" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Z10" s="3">
         <v>1000</v>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1245,26 +1265,29 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4700</v>
       </c>
       <c r="F17" s="3">
         <v>4700</v>
       </c>
       <c r="G17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H17" s="3">
         <v>10400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1300</v>
-      </c>
-      <c r="X17" s="3">
-        <v>4200</v>
       </c>
       <c r="Y17" s="3">
         <v>4200</v>
       </c>
       <c r="Z17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AA17" s="3">
         <v>4400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
-      </c>
-      <c r="E18" s="3">
-        <v>300</v>
       </c>
       <c r="F18" s="3">
         <v>300</v>
       </c>
       <c r="G18" s="3">
+        <v>300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-4800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>400</v>
       </c>
       <c r="P18" s="3">
         <v>400</v>
       </c>
       <c r="Q18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R18" s="3">
         <v>500</v>
       </c>
       <c r="S18" s="3">
+        <v>500</v>
+      </c>
+      <c r="T18" s="3">
         <v>900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,17 +1582,18 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1567,22 +1601,22 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
@@ -1591,23 +1625,23 @@
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1626,85 +1660,91 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
         <v>300</v>
       </c>
       <c r="F21" s="3">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>300</v>
       </c>
       <c r="J21" s="3">
         <v>300</v>
       </c>
       <c r="K21" s="3">
+        <v>300</v>
+      </c>
+      <c r="L21" s="3">
         <v>200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>800</v>
       </c>
       <c r="M21" s="3">
         <v>800</v>
       </c>
       <c r="N21" s="3">
+        <v>800</v>
+      </c>
+      <c r="O21" s="3">
         <v>600</v>
-      </c>
-      <c r="O21" s="3">
-        <v>500</v>
       </c>
       <c r="P21" s="3">
         <v>500</v>
       </c>
       <c r="Q21" s="3">
+        <v>500</v>
+      </c>
+      <c r="R21" s="3">
         <v>800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>800</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>300</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-100</v>
       </c>
       <c r="X21" s="3">
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,114 +1820,120 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
         <v>300</v>
       </c>
       <c r="F23" s="3">
+        <v>300</v>
+      </c>
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>300</v>
       </c>
       <c r="J23" s="3">
         <v>300</v>
       </c>
       <c r="K23" s="3">
+        <v>300</v>
+      </c>
+      <c r="L23" s="3">
         <v>200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>800</v>
       </c>
       <c r="M23" s="3">
         <v>800</v>
       </c>
       <c r="N23" s="3">
+        <v>800</v>
+      </c>
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
-      </c>
-      <c r="S23" s="3">
-        <v>800</v>
       </c>
       <c r="T23" s="3">
         <v>800</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
@@ -1896,26 +1942,26 @@
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>700</v>
       </c>
       <c r="M26" s="3">
         <v>700</v>
       </c>
       <c r="N26" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="O26" s="3">
         <v>500</v>
       </c>
       <c r="P26" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>700</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>700</v>
       </c>
       <c r="M27" s="3">
         <v>700</v>
       </c>
       <c r="N27" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="O27" s="3">
         <v>500</v>
       </c>
       <c r="P27" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>700</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2274,14 +2335,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2293,22 +2354,22 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>2500</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-2900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-600</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,17 +2540,20 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2491,22 +2561,22 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
@@ -2515,23 +2585,23 @@
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>700</v>
       </c>
       <c r="M33" s="3">
         <v>700</v>
       </c>
       <c r="N33" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="O33" s="3">
         <v>500</v>
       </c>
       <c r="P33" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>700</v>
       </c>
       <c r="M35" s="3">
         <v>700</v>
       </c>
       <c r="N35" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="O35" s="3">
         <v>500</v>
       </c>
       <c r="P35" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E41" s="3">
         <v>14200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>12200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>12700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>13700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3042,14 +3132,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
+      <c r="Q42" s="3">
+        <v>0</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -3075,85 +3165,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3241,150 +3340,156 @@
         <v>500</v>
       </c>
       <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>500</v>
       </c>
       <c r="M45" s="3">
+        <v>500</v>
+      </c>
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>500</v>
       </c>
       <c r="P45" s="3">
         <v>500</v>
       </c>
       <c r="Q45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="R45" s="3">
         <v>300</v>
       </c>
       <c r="S45" s="3">
+        <v>300</v>
+      </c>
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
-      </c>
-      <c r="U45" s="3">
-        <v>400</v>
       </c>
       <c r="V45" s="3">
         <v>400</v>
       </c>
       <c r="W45" s="3">
+        <v>400</v>
+      </c>
+      <c r="X45" s="3">
         <v>3700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E46" s="3">
         <v>19600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>27400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28900</v>
-      </c>
-      <c r="K46" s="3">
-        <v>28600</v>
       </c>
       <c r="L46" s="3">
         <v>28600</v>
       </c>
       <c r="M46" s="3">
+        <v>28600</v>
+      </c>
+      <c r="N46" s="3">
         <v>27100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>26000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>23700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>23300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>23400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>20900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>19900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>19700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>21700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>20000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>20100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>20500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3425,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>1300</v>
@@ -3436,8 +3541,8 @@
       <c r="S47" s="3">
         <v>1300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
+      <c r="T47" s="3">
+        <v>1300</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
@@ -3445,14 +3550,14 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3" t="s">
+      <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3469,7 +3577,7 @@
         <v>600</v>
       </c>
       <c r="E48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
@@ -3478,16 +3586,16 @@
         <v>700</v>
       </c>
       <c r="H48" s="3">
+        <v>700</v>
+      </c>
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1100</v>
       </c>
       <c r="L48" s="3">
         <v>1100</v>
@@ -3496,10 +3604,10 @@
         <v>1100</v>
       </c>
       <c r="N48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O48" s="3">
         <v>1200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>300</v>
@@ -3514,31 +3622,34 @@
         <v>300</v>
       </c>
       <c r="T48" s="3">
+        <v>300</v>
+      </c>
+      <c r="U48" s="3">
         <v>2000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>300</v>
-      </c>
-      <c r="X48" s="3">
-        <v>2400</v>
       </c>
       <c r="Y48" s="3">
         <v>2400</v>
       </c>
       <c r="Z48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AA48" s="3">
         <v>2500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3777,7 +3897,7 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -3789,7 +3909,7 @@
         <v>400</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
@@ -3798,7 +3918,7 @@
         <v>300</v>
       </c>
       <c r="L52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>400</v>
@@ -3834,7 +3954,7 @@
         <v>400</v>
       </c>
       <c r="X52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E54" s="3">
         <v>20300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>23900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>30200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>22500</v>
-      </c>
-      <c r="V54" s="3">
-        <v>22400</v>
       </c>
       <c r="W54" s="3">
         <v>22400</v>
       </c>
       <c r="X54" s="3">
+        <v>22400</v>
+      </c>
+      <c r="Y54" s="3">
         <v>22500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>22600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>23100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,70 +4187,71 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1900</v>
       </c>
       <c r="K57" s="3">
         <v>1900</v>
       </c>
       <c r="L57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M57" s="3">
         <v>2000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1400</v>
       </c>
       <c r="N57" s="3">
         <v>1400</v>
       </c>
       <c r="O57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1500</v>
-      </c>
-      <c r="W57" s="3">
-        <v>1400</v>
       </c>
       <c r="X57" s="3">
         <v>1400</v>
@@ -4129,13 +4260,16 @@
         <v>1400</v>
       </c>
       <c r="Z57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA57" s="3">
         <v>1500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4148,14 +4282,14 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>1300</v>
@@ -4164,14 +4298,14 @@
         <v>1300</v>
       </c>
       <c r="L58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
@@ -4211,19 +4345,22 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
@@ -4232,53 +4369,53 @@
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>600</v>
       </c>
       <c r="O59" s="3">
+        <v>600</v>
+      </c>
+      <c r="P59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>100</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
       <c r="Y59" s="3">
         <v>0</v>
       </c>
@@ -4288,85 +4425,91 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E60" s="3">
         <v>2200</v>
       </c>
       <c r="F60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>3800</v>
       </c>
       <c r="L60" s="3">
         <v>3800</v>
       </c>
       <c r="M60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2000</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1500</v>
       </c>
       <c r="W60" s="3">
         <v>1500</v>
       </c>
       <c r="X60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Y60" s="3">
         <v>1400</v>
       </c>
       <c r="Z60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA60" s="3">
         <v>1600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4386,22 +4529,22 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>600</v>
-      </c>
-      <c r="J61" s="3">
-        <v>700</v>
       </c>
       <c r="K61" s="3">
         <v>700</v>
       </c>
       <c r="L61" s="3">
+        <v>700</v>
+      </c>
+      <c r="M61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1300</v>
-      </c>
-      <c r="N61" s="3">
-        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
@@ -4413,7 +4556,7 @@
         <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -4422,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>100</v>
@@ -4434,7 +4577,7 @@
         <v>100</v>
       </c>
       <c r="Y61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4451,13 +4597,13 @@
         <v>2000</v>
       </c>
       <c r="E62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2400</v>
       </c>
       <c r="H62" s="3">
         <v>2400</v>
@@ -4466,7 +4612,7 @@
         <v>2400</v>
       </c>
       <c r="J62" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="K62" s="3">
         <v>2700</v>
@@ -4475,13 +4621,13 @@
         <v>2700</v>
       </c>
       <c r="M62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N62" s="3">
         <v>2800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>2300</v>
       </c>
       <c r="P62" s="3">
         <v>2300</v>
@@ -4490,7 +4636,7 @@
         <v>2300</v>
       </c>
       <c r="R62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="S62" s="3">
         <v>2500</v>
@@ -4502,13 +4648,13 @@
         <v>2500</v>
       </c>
       <c r="V62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W62" s="3">
         <v>2700</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
+      <c r="X62" s="3">
+        <v>0</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>8</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E72" s="3">
         <v>15100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>22600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>20300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>20100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>20300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>20600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E76" s="3">
         <v>16100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>700</v>
       </c>
       <c r="M81" s="3">
         <v>700</v>
       </c>
       <c r="N81" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="O81" s="3">
         <v>500</v>
       </c>
       <c r="P81" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5865,16 +6064,16 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>-400</v>
-      </c>
-      <c r="T83" s="3">
-        <v>200</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6433,34 +6654,37 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>300</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6634,14 +6864,14 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -6652,46 +6882,49 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>1200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>600</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>1900</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>-100</v>
       </c>
       <c r="X94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6728,23 +6962,23 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-1700</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1700</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -6755,11 +6989,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,23 +7282,23 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -7060,29 +7306,29 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1700</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>-100</v>
       </c>
       <c r="S100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1800</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>PBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,350 +665,360 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E8" s="3">
         <v>4600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5000</v>
       </c>
       <c r="G8" s="3">
         <v>5000</v>
       </c>
       <c r="H8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I8" s="3">
         <v>5600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>5000</v>
       </c>
       <c r="J8" s="3">
         <v>5000</v>
       </c>
       <c r="K8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L8" s="3">
         <v>4500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="E9" s="3">
         <v>3500</v>
       </c>
       <c r="F9" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="G9" s="3">
         <v>3800</v>
       </c>
       <c r="H9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I9" s="3">
         <v>4100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1200</v>
       </c>
       <c r="G10" s="3">
         <v>1200</v>
       </c>
       <c r="H10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I10" s="3">
         <v>1500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1300</v>
       </c>
       <c r="L10" s="3">
         <v>1300</v>
       </c>
       <c r="M10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N10" s="3">
         <v>1900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1600</v>
       </c>
       <c r="R10" s="3">
         <v>1600</v>
       </c>
       <c r="S10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T10" s="3">
         <v>1500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1200</v>
-      </c>
-      <c r="X10" s="3">
-        <v>900</v>
       </c>
       <c r="Y10" s="3">
         <v>900</v>
       </c>
       <c r="Z10" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AA10" s="3">
         <v>1000</v>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1268,26 +1288,29 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E17" s="3">
         <v>4500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4700</v>
       </c>
       <c r="G17" s="3">
         <v>4700</v>
       </c>
       <c r="H17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I17" s="3">
         <v>10400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>4200</v>
       </c>
       <c r="Z17" s="3">
         <v>4200</v>
       </c>
       <c r="AA17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AB17" s="3">
         <v>4400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>300</v>
       </c>
       <c r="G18" s="3">
         <v>300</v>
       </c>
       <c r="H18" s="3">
+        <v>300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-4800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>400</v>
       </c>
       <c r="Q18" s="3">
         <v>400</v>
       </c>
       <c r="R18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S18" s="3">
         <v>500</v>
       </c>
       <c r="T18" s="3">
+        <v>500</v>
+      </c>
+      <c r="U18" s="3">
         <v>900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>400</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,20 +1616,21 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1604,22 +1638,22 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
@@ -1628,23 +1662,23 @@
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1663,88 +1697,94 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>600</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>300</v>
       </c>
       <c r="F21" s="3">
         <v>300</v>
       </c>
       <c r="G21" s="3">
+        <v>300</v>
+      </c>
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>300</v>
       </c>
       <c r="K21" s="3">
         <v>300</v>
       </c>
       <c r="L21" s="3">
+        <v>300</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>800</v>
       </c>
       <c r="N21" s="3">
         <v>800</v>
       </c>
       <c r="O21" s="3">
+        <v>800</v>
+      </c>
+      <c r="P21" s="3">
         <v>600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>500</v>
       </c>
       <c r="Q21" s="3">
         <v>500</v>
       </c>
       <c r="R21" s="3">
+        <v>500</v>
+      </c>
+      <c r="S21" s="3">
         <v>800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>800</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>300</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-100</v>
       </c>
       <c r="Y21" s="3">
         <v>-100</v>
       </c>
       <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,88 +1863,94 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>300</v>
       </c>
       <c r="F23" s="3">
         <v>300</v>
       </c>
       <c r="G23" s="3">
+        <v>300</v>
+      </c>
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>300</v>
       </c>
       <c r="K23" s="3">
         <v>300</v>
       </c>
       <c r="L23" s="3">
+        <v>300</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>800</v>
       </c>
       <c r="N23" s="3">
         <v>800</v>
       </c>
       <c r="O23" s="3">
+        <v>800</v>
+      </c>
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>500</v>
-      </c>
-      <c r="T23" s="3">
-        <v>800</v>
       </c>
       <c r="U23" s="3">
         <v>800</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1912,31 +1958,31 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -1945,26 +1991,26 @@
         <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>700</v>
       </c>
       <c r="N26" s="3">
         <v>700</v>
       </c>
       <c r="O26" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="P26" s="3">
         <v>500</v>
       </c>
       <c r="Q26" s="3">
+        <v>500</v>
+      </c>
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>700</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>700</v>
       </c>
       <c r="N27" s="3">
         <v>700</v>
       </c>
       <c r="O27" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="P27" s="3">
         <v>500</v>
       </c>
       <c r="Q27" s="3">
+        <v>500</v>
+      </c>
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>700</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2338,14 +2399,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2357,22 +2418,22 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>2500</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-2900</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,20 +2610,23 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2564,22 +2634,22 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
@@ -2588,23 +2658,23 @@
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2623,88 +2693,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>700</v>
       </c>
       <c r="N33" s="3">
         <v>700</v>
       </c>
       <c r="O33" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="P33" s="3">
         <v>500</v>
       </c>
       <c r="Q33" s="3">
+        <v>500</v>
+      </c>
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>700</v>
       </c>
       <c r="N35" s="3">
         <v>700</v>
       </c>
       <c r="O35" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="P35" s="3">
         <v>500</v>
       </c>
       <c r="Q35" s="3">
+        <v>500</v>
+      </c>
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,111 +3094,115 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E41" s="3">
         <v>14500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>12200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>12700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>13700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>8200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3135,14 +3225,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
+      <c r="R42" s="3">
+        <v>0</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -3168,88 +3258,94 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E43" s="3">
         <v>5000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,13 +3424,16 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
@@ -3343,153 +3442,159 @@
         <v>500</v>
       </c>
       <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>500</v>
       </c>
       <c r="N45" s="3">
+        <v>500</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>500</v>
       </c>
       <c r="Q45" s="3">
         <v>500</v>
       </c>
       <c r="R45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S45" s="3">
         <v>300</v>
       </c>
       <c r="T45" s="3">
+        <v>300</v>
+      </c>
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
-      </c>
-      <c r="V45" s="3">
-        <v>400</v>
       </c>
       <c r="W45" s="3">
         <v>400</v>
       </c>
       <c r="X45" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y45" s="3">
         <v>3700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E46" s="3">
         <v>19900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>27400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28900</v>
-      </c>
-      <c r="L46" s="3">
-        <v>28600</v>
       </c>
       <c r="M46" s="3">
         <v>28600</v>
       </c>
       <c r="N46" s="3">
+        <v>28600</v>
+      </c>
+      <c r="O46" s="3">
         <v>27100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>24600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>26000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>24300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>23700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>23300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>23400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>20900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>19900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>19700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>21700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>20000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>20100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>20500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3533,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>1300</v>
@@ -3544,8 +3649,8 @@
       <c r="T47" s="3">
         <v>1300</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
+      <c r="U47" s="3">
+        <v>1300</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
@@ -3553,14 +3658,14 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="3" t="s">
+      <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
@@ -3568,19 +3673,22 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
       </c>
       <c r="F48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
@@ -3589,16 +3697,16 @@
         <v>700</v>
       </c>
       <c r="I48" s="3">
+        <v>700</v>
+      </c>
+      <c r="J48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1100</v>
       </c>
       <c r="M48" s="3">
         <v>1100</v>
@@ -3607,10 +3715,10 @@
         <v>1100</v>
       </c>
       <c r="O48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P48" s="3">
         <v>1200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>300</v>
       </c>
       <c r="Q48" s="3">
         <v>300</v>
@@ -3625,31 +3733,34 @@
         <v>300</v>
       </c>
       <c r="U48" s="3">
+        <v>300</v>
+      </c>
+      <c r="V48" s="3">
         <v>2000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>300</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>2400</v>
       </c>
       <c r="Z48" s="3">
         <v>2400</v>
       </c>
       <c r="AA48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AB48" s="3">
         <v>2500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3900,7 +4020,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
@@ -3912,7 +4032,7 @@
         <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -3921,7 +4041,7 @@
         <v>300</v>
       </c>
       <c r="M52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>400</v>
@@ -3957,7 +4077,7 @@
         <v>400</v>
       </c>
       <c r="Y52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E54" s="3">
         <v>20700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>26300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>23300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>22500</v>
-      </c>
-      <c r="W54" s="3">
-        <v>22400</v>
       </c>
       <c r="X54" s="3">
         <v>22400</v>
       </c>
       <c r="Y54" s="3">
+        <v>22400</v>
+      </c>
+      <c r="Z54" s="3">
         <v>22500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>22600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>23100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,73 +4318,74 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1900</v>
       </c>
       <c r="L57" s="3">
         <v>1900</v>
       </c>
       <c r="M57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N57" s="3">
         <v>2000</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1400</v>
       </c>
       <c r="O57" s="3">
         <v>1400</v>
       </c>
       <c r="P57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1500</v>
-      </c>
-      <c r="X57" s="3">
-        <v>1400</v>
       </c>
       <c r="Y57" s="3">
         <v>1400</v>
@@ -4263,13 +4394,16 @@
         <v>1400</v>
       </c>
       <c r="AA57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB57" s="3">
         <v>1500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4285,14 +4419,14 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>1300</v>
@@ -4301,14 +4435,14 @@
         <v>1300</v>
       </c>
       <c r="M58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
@@ -4348,22 +4482,25 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
@@ -4372,53 +4509,53 @@
         <v>600</v>
       </c>
       <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>600</v>
       </c>
       <c r="P59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
       <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
         <v>100</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
-      </c>
       <c r="Z59" s="3">
         <v>0</v>
       </c>
@@ -4428,88 +4565,94 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2100</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2200</v>
       </c>
       <c r="F60" s="3">
         <v>2200</v>
       </c>
       <c r="G60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>3800</v>
       </c>
       <c r="M60" s="3">
         <v>3800</v>
       </c>
       <c r="N60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2000</v>
-      </c>
-      <c r="W60" s="3">
-        <v>1500</v>
       </c>
       <c r="X60" s="3">
         <v>1500</v>
       </c>
       <c r="Y60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Z60" s="3">
         <v>1400</v>
       </c>
       <c r="AA60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB60" s="3">
         <v>1600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4532,22 +4675,22 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>600</v>
-      </c>
-      <c r="K61" s="3">
-        <v>700</v>
       </c>
       <c r="L61" s="3">
         <v>700</v>
       </c>
       <c r="M61" s="3">
+        <v>700</v>
+      </c>
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1300</v>
-      </c>
-      <c r="O61" s="3">
-        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
@@ -4559,7 +4702,7 @@
         <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -4568,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>100</v>
@@ -4580,7 +4723,7 @@
         <v>100</v>
       </c>
       <c r="Z61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
@@ -4588,25 +4731,28 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E62" s="3">
         <v>2000</v>
       </c>
       <c r="F62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2400</v>
       </c>
       <c r="I62" s="3">
         <v>2400</v>
@@ -4615,7 +4761,7 @@
         <v>2400</v>
       </c>
       <c r="K62" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="L62" s="3">
         <v>2700</v>
@@ -4624,13 +4770,13 @@
         <v>2700</v>
       </c>
       <c r="N62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O62" s="3">
         <v>2800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3000</v>
-      </c>
-      <c r="P62" s="3">
-        <v>2300</v>
       </c>
       <c r="Q62" s="3">
         <v>2300</v>
@@ -4639,7 +4785,7 @@
         <v>2300</v>
       </c>
       <c r="S62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="T62" s="3">
         <v>2500</v>
@@ -4651,13 +4797,13 @@
         <v>2500</v>
       </c>
       <c r="W62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="X62" s="3">
         <v>2700</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>8</v>
+      <c r="Y62" s="3">
+        <v>0</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>8</v>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E72" s="3">
         <v>15300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>17700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>22600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>16900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>19600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>20100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>20300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>20600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>21500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>700</v>
       </c>
       <c r="N81" s="3">
         <v>700</v>
       </c>
       <c r="O81" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="P81" s="3">
         <v>500</v>
       </c>
       <c r="Q81" s="3">
+        <v>500</v>
+      </c>
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6067,16 +6266,16 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>-400</v>
-      </c>
-      <c r="U83" s="3">
-        <v>200</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
       </c>
       <c r="W83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X83" s="3">
         <v>100</v>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>900</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6657,34 +6878,37 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>300</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,13 +7070,16 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-8200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -6867,14 +7097,14 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -6885,46 +7115,49 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>1200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>600</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>1900</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
       <c r="W94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X94" s="3">
         <v>-100</v>
       </c>
       <c r="Y94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6965,23 +7199,23 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-1700</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6992,11 +7226,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7516,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7285,23 +7531,23 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -7309,29 +7555,29 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1700</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>-100</v>
       </c>
       <c r="T100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1800</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -7353,13 +7599,16 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -7433,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>PBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,363 +665,372 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5000</v>
       </c>
       <c r="H8" s="3">
         <v>5000</v>
       </c>
       <c r="I8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J8" s="3">
         <v>5600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>5000</v>
       </c>
       <c r="K8" s="3">
         <v>5000</v>
       </c>
       <c r="L8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M8" s="3">
         <v>4500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E9" s="3">
         <v>3000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3500</v>
       </c>
       <c r="F9" s="3">
         <v>3500</v>
       </c>
       <c r="G9" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="H9" s="3">
         <v>3800</v>
       </c>
       <c r="I9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J9" s="3">
         <v>4100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1200</v>
       </c>
       <c r="H10" s="3">
         <v>1200</v>
       </c>
       <c r="I10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1300</v>
       </c>
       <c r="M10" s="3">
         <v>1300</v>
       </c>
       <c r="N10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O10" s="3">
         <v>1900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1500</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1600</v>
       </c>
       <c r="S10" s="3">
         <v>1600</v>
       </c>
       <c r="T10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U10" s="3">
         <v>1500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1200</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>900</v>
       </c>
       <c r="Z10" s="3">
         <v>900</v>
       </c>
       <c r="AA10" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB10" s="3">
         <v>1000</v>
@@ -1029,8 +1038,11 @@
       <c r="AC10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1291,26 +1310,29 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E17" s="3">
         <v>3900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4700</v>
       </c>
       <c r="H17" s="3">
         <v>4700</v>
       </c>
       <c r="I17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J17" s="3">
         <v>10400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1300</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>4200</v>
       </c>
       <c r="AA17" s="3">
         <v>4200</v>
       </c>
       <c r="AB17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AC17" s="3">
         <v>4400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>300</v>
       </c>
       <c r="H18" s="3">
         <v>300</v>
       </c>
       <c r="I18" s="3">
+        <v>300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-4800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>400</v>
       </c>
       <c r="R18" s="3">
         <v>400</v>
       </c>
       <c r="S18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T18" s="3">
         <v>500</v>
       </c>
       <c r="U18" s="3">
+        <v>500</v>
+      </c>
+      <c r="V18" s="3">
         <v>900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>400</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,23 +1649,24 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1641,22 +1674,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
@@ -1665,23 +1698,23 @@
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1700,8 +1733,11 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1709,82 +1745,85 @@
         <v>600</v>
       </c>
       <c r="E21" s="3">
+        <v>600</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>300</v>
       </c>
       <c r="G21" s="3">
         <v>300</v>
       </c>
       <c r="H21" s="3">
+        <v>300</v>
+      </c>
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>300</v>
       </c>
       <c r="L21" s="3">
         <v>300</v>
       </c>
       <c r="M21" s="3">
+        <v>300</v>
+      </c>
+      <c r="N21" s="3">
         <v>200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>800</v>
       </c>
       <c r="O21" s="3">
         <v>800</v>
       </c>
       <c r="P21" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q21" s="3">
         <v>600</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>500</v>
       </c>
       <c r="R21" s="3">
         <v>500</v>
       </c>
       <c r="S21" s="3">
+        <v>500</v>
+      </c>
+      <c r="T21" s="3">
         <v>800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>800</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>300</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-100</v>
       </c>
       <c r="Z21" s="3">
         <v>-100</v>
       </c>
       <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,8 +1905,11 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1875,117 +1917,120 @@
         <v>600</v>
       </c>
       <c r="E23" s="3">
+        <v>600</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>300</v>
       </c>
       <c r="G23" s="3">
         <v>300</v>
       </c>
       <c r="H23" s="3">
+        <v>300</v>
+      </c>
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>300</v>
       </c>
       <c r="L23" s="3">
         <v>300</v>
       </c>
       <c r="M23" s="3">
+        <v>300</v>
+      </c>
+      <c r="N23" s="3">
         <v>200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>800</v>
       </c>
       <c r="O23" s="3">
         <v>800</v>
       </c>
       <c r="P23" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>500</v>
-      </c>
-      <c r="U23" s="3">
-        <v>800</v>
       </c>
       <c r="V23" s="3">
         <v>800</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
@@ -1994,26 +2039,26 @@
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
@@ -2032,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,8 +2163,11 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2124,82 +2175,85 @@
         <v>400</v>
       </c>
       <c r="E26" s="3">
+        <v>400</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>700</v>
       </c>
       <c r="O26" s="3">
         <v>700</v>
       </c>
       <c r="P26" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q26" s="3">
         <v>500</v>
       </c>
       <c r="R26" s="3">
+        <v>500</v>
+      </c>
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>700</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2207,82 +2261,85 @@
         <v>400</v>
       </c>
       <c r="E27" s="3">
+        <v>400</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>700</v>
       </c>
       <c r="O27" s="3">
         <v>700</v>
       </c>
       <c r="P27" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q27" s="3">
         <v>500</v>
       </c>
       <c r="R27" s="3">
+        <v>500</v>
+      </c>
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>700</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2402,14 +2462,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2421,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>2500</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-600</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2447,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,23 +2679,26 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2637,22 +2706,22 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
@@ -2661,23 +2730,23 @@
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2696,8 +2765,11 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2705,82 +2777,85 @@
         <v>400</v>
       </c>
       <c r="E33" s="3">
+        <v>400</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>700</v>
       </c>
       <c r="O33" s="3">
         <v>700</v>
       </c>
       <c r="P33" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q33" s="3">
         <v>500</v>
       </c>
       <c r="R33" s="3">
+        <v>500</v>
+      </c>
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,8 +2937,11 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2871,170 +2949,176 @@
         <v>400</v>
       </c>
       <c r="E35" s="3">
+        <v>400</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>700</v>
       </c>
       <c r="O35" s="3">
         <v>700</v>
       </c>
       <c r="P35" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q35" s="3">
         <v>500</v>
       </c>
       <c r="R35" s="3">
+        <v>500</v>
+      </c>
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,99 +3180,103 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E41" s="3">
         <v>7200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>16000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>12200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>12700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>13700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E42" s="3">
         <v>8200</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -3204,8 +3293,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -3228,14 +3317,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
+      <c r="S42" s="3">
+        <v>0</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -3261,91 +3350,97 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>6000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3436,7 +3534,7 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
@@ -3445,156 +3543,162 @@
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>500</v>
       </c>
       <c r="O45" s="3">
+        <v>500</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>500</v>
       </c>
       <c r="R45" s="3">
         <v>500</v>
       </c>
       <c r="S45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T45" s="3">
         <v>300</v>
       </c>
       <c r="U45" s="3">
+        <v>300</v>
+      </c>
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
-      </c>
-      <c r="W45" s="3">
-        <v>400</v>
       </c>
       <c r="X45" s="3">
         <v>400</v>
       </c>
       <c r="Y45" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z45" s="3">
         <v>3700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>22800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>27400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28900</v>
-      </c>
-      <c r="M46" s="3">
-        <v>28600</v>
       </c>
       <c r="N46" s="3">
         <v>28600</v>
       </c>
       <c r="O46" s="3">
+        <v>28600</v>
+      </c>
+      <c r="P46" s="3">
         <v>27100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>24300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>23700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>23300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>23400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>20900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>19900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>19700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>21700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>20000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>20100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>20500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3641,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
         <v>1300</v>
@@ -3652,8 +3756,8 @@
       <c r="U47" s="3">
         <v>1300</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
+      <c r="V47" s="3">
+        <v>1300</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
@@ -3661,14 +3765,14 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="3" t="s">
+      <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB47" s="3">
         <v>0</v>
@@ -3676,8 +3780,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3685,13 +3792,13 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
       </c>
       <c r="G48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
@@ -3700,16 +3807,16 @@
         <v>700</v>
       </c>
       <c r="J48" s="3">
+        <v>700</v>
+      </c>
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1100</v>
       </c>
       <c r="N48" s="3">
         <v>1100</v>
@@ -3718,10 +3825,10 @@
         <v>1100</v>
       </c>
       <c r="P48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>300</v>
       </c>
       <c r="R48" s="3">
         <v>300</v>
@@ -3736,31 +3843,34 @@
         <v>300</v>
       </c>
       <c r="V48" s="3">
+        <v>300</v>
+      </c>
+      <c r="W48" s="3">
         <v>2000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>300</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>2400</v>
       </c>
       <c r="AA48" s="3">
         <v>2400</v>
       </c>
       <c r="AB48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AC48" s="3">
         <v>2500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4023,7 +4142,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -4035,7 +4154,7 @@
         <v>400</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
@@ -4044,7 +4163,7 @@
         <v>300</v>
       </c>
       <c r="N52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
@@ -4080,7 +4199,7 @@
         <v>400</v>
       </c>
       <c r="Z52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
@@ -4091,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E54" s="3">
         <v>20900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>26600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>26300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>25400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>23300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>22500</v>
-      </c>
-      <c r="X54" s="3">
-        <v>22400</v>
       </c>
       <c r="Y54" s="3">
         <v>22400</v>
       </c>
       <c r="Z54" s="3">
+        <v>22400</v>
+      </c>
+      <c r="AA54" s="3">
         <v>22500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>22600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>23100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,76 +4448,77 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1900</v>
       </c>
       <c r="M57" s="3">
         <v>1900</v>
       </c>
       <c r="N57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O57" s="3">
         <v>2000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1400</v>
       </c>
       <c r="P57" s="3">
         <v>1400</v>
       </c>
       <c r="Q57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1500</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>1400</v>
       </c>
       <c r="Z57" s="3">
         <v>1400</v>
@@ -4397,30 +4527,33 @@
         <v>1400</v>
       </c>
       <c r="AB57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC57" s="3">
         <v>1500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -4429,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>1300</v>
@@ -4438,14 +4571,14 @@
         <v>1300</v>
       </c>
       <c r="N58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
@@ -4485,25 +4618,28 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
@@ -4512,53 +4648,53 @@
         <v>600</v>
       </c>
       <c r="K59" s="3">
+        <v>600</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
-      </c>
-      <c r="O59" s="3">
-        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>600</v>
       </c>
       <c r="Q59" s="3">
+        <v>600</v>
+      </c>
+      <c r="R59" s="3">
         <v>2100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>200</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
       <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
         <v>100</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
-      </c>
       <c r="AA59" s="3">
         <v>0</v>
       </c>
@@ -4568,91 +4704,97 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2200</v>
       </c>
       <c r="G60" s="3">
         <v>2200</v>
       </c>
       <c r="H60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>3800</v>
       </c>
       <c r="N60" s="3">
         <v>3800</v>
       </c>
       <c r="O60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2000</v>
-      </c>
-      <c r="X60" s="3">
-        <v>1500</v>
       </c>
       <c r="Y60" s="3">
         <v>1500</v>
       </c>
       <c r="Z60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="AA60" s="3">
         <v>1400</v>
       </c>
       <c r="AB60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC60" s="3">
         <v>1600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4678,22 +4820,22 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>600</v>
-      </c>
-      <c r="L61" s="3">
-        <v>700</v>
       </c>
       <c r="M61" s="3">
         <v>700</v>
       </c>
       <c r="N61" s="3">
+        <v>700</v>
+      </c>
+      <c r="O61" s="3">
         <v>1000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1300</v>
-      </c>
-      <c r="P61" s="3">
-        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
@@ -4705,7 +4847,7 @@
         <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
@@ -4714,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>100</v>
@@ -4726,7 +4868,7 @@
         <v>100</v>
       </c>
       <c r="AA61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
@@ -4734,28 +4876,31 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2000</v>
       </c>
       <c r="F62" s="3">
         <v>2000</v>
       </c>
       <c r="G62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2400</v>
       </c>
       <c r="J62" s="3">
         <v>2400</v>
@@ -4764,7 +4909,7 @@
         <v>2400</v>
       </c>
       <c r="L62" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="M62" s="3">
         <v>2700</v>
@@ -4773,13 +4918,13 @@
         <v>2700</v>
       </c>
       <c r="O62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P62" s="3">
         <v>2800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>2300</v>
       </c>
       <c r="R62" s="3">
         <v>2300</v>
@@ -4788,7 +4933,7 @@
         <v>2300</v>
       </c>
       <c r="T62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="U62" s="3">
         <v>2500</v>
@@ -4800,13 +4945,13 @@
         <v>2500</v>
       </c>
       <c r="X62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y62" s="3">
         <v>2700</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="3" t="s">
-        <v>8</v>
+      <c r="Z62" s="3">
+        <v>0</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>8</v>
@@ -4817,8 +4962,11 @@
       <c r="AC62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,8 +5220,11 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5075,82 +5232,85 @@
         <v>3900</v>
       </c>
       <c r="E66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F66" s="3">
         <v>4100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E72" s="3">
         <v>15700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>17700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>22600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>16800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>16900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>19600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>20100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>20300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>20600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E76" s="3">
         <v>17000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>21100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>21500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,96 +6198,102 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6107,82 +6301,85 @@
         <v>400</v>
       </c>
       <c r="E81" s="3">
+        <v>400</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>700</v>
       </c>
       <c r="O81" s="3">
         <v>700</v>
       </c>
       <c r="P81" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q81" s="3">
         <v>500</v>
       </c>
       <c r="R81" s="3">
+        <v>500</v>
+      </c>
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6269,16 +6467,16 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>-400</v>
-      </c>
-      <c r="V83" s="3">
-        <v>200</v>
       </c>
       <c r="W83" s="3">
         <v>200</v>
       </c>
       <c r="X83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y83" s="3">
         <v>100</v>
@@ -6295,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6881,34 +7101,37 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>300</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,17 +7299,20 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -7100,14 +7329,14 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -7118,46 +7347,49 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>1200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>600</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>1900</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
       <c r="X94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y94" s="3">
         <v>-100</v>
       </c>
       <c r="Z94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,13 +7419,14 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -7202,23 +7435,23 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-1700</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7229,11 +7462,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,13 +7761,16 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7534,23 +7779,23 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -7558,29 +7803,29 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>-100</v>
       </c>
       <c r="U100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V100" s="3">
         <v>-1800</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -7602,17 +7847,20 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -7685,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PBSV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>PBSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,248 +796,254 @@
         <v>4600</v>
       </c>
       <c r="E8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F8" s="3">
         <v>4200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5000</v>
       </c>
       <c r="I8" s="3">
         <v>5000</v>
       </c>
       <c r="J8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K8" s="3">
         <v>5600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>5000</v>
       </c>
       <c r="L8" s="3">
         <v>5000</v>
       </c>
       <c r="M8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N8" s="3">
         <v>4500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3500</v>
       </c>
       <c r="G9" s="3">
         <v>3500</v>
       </c>
       <c r="H9" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="I9" s="3">
         <v>3800</v>
       </c>
       <c r="J9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K9" s="3">
         <v>4100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1200</v>
       </c>
       <c r="I10" s="3">
         <v>1200</v>
       </c>
       <c r="J10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1200</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1300</v>
       </c>
       <c r="N10" s="3">
         <v>1300</v>
       </c>
       <c r="O10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P10" s="3">
         <v>1900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1500</v>
-      </c>
-      <c r="S10" s="3">
-        <v>1600</v>
       </c>
       <c r="T10" s="3">
         <v>1600</v>
       </c>
       <c r="U10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V10" s="3">
         <v>1500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1200</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>900</v>
       </c>
       <c r="AA10" s="3">
         <v>900</v>
       </c>
       <c r="AB10" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AC10" s="3">
         <v>1000</v>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1313,26 +1333,29 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E17" s="3">
         <v>4200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4700</v>
       </c>
       <c r="I17" s="3">
         <v>4700</v>
       </c>
       <c r="J17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K17" s="3">
         <v>10400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1300</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>4200</v>
       </c>
       <c r="AB17" s="3">
         <v>4200</v>
       </c>
       <c r="AC17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AD17" s="3">
         <v>4400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>500</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>300</v>
       </c>
       <c r="I18" s="3">
         <v>300</v>
       </c>
       <c r="J18" s="3">
+        <v>300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>500</v>
-      </c>
-      <c r="R18" s="3">
-        <v>400</v>
       </c>
       <c r="S18" s="3">
         <v>400</v>
       </c>
       <c r="T18" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U18" s="3">
         <v>500</v>
       </c>
       <c r="V18" s="3">
+        <v>500</v>
+      </c>
+      <c r="W18" s="3">
         <v>900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>400</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,26 +1683,27 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1677,22 +1711,22 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
@@ -1701,23 +1735,23 @@
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
@@ -1736,8 +1770,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1748,82 +1785,85 @@
         <v>600</v>
       </c>
       <c r="F21" s="3">
+        <v>600</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>300</v>
       </c>
       <c r="H21" s="3">
         <v>300</v>
       </c>
       <c r="I21" s="3">
+        <v>300</v>
+      </c>
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>300</v>
       </c>
       <c r="M21" s="3">
         <v>300</v>
       </c>
       <c r="N21" s="3">
+        <v>300</v>
+      </c>
+      <c r="O21" s="3">
         <v>200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>800</v>
       </c>
       <c r="P21" s="3">
         <v>800</v>
       </c>
       <c r="Q21" s="3">
+        <v>800</v>
+      </c>
+      <c r="R21" s="3">
         <v>600</v>
-      </c>
-      <c r="R21" s="3">
-        <v>500</v>
       </c>
       <c r="S21" s="3">
         <v>500</v>
       </c>
       <c r="T21" s="3">
+        <v>500</v>
+      </c>
+      <c r="U21" s="3">
         <v>800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>800</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>300</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-100</v>
       </c>
       <c r="AA21" s="3">
         <v>-100</v>
       </c>
       <c r="AB21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,8 +1948,11 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1920,120 +1963,123 @@
         <v>600</v>
       </c>
       <c r="F23" s="3">
+        <v>600</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>300</v>
       </c>
       <c r="H23" s="3">
         <v>300</v>
       </c>
       <c r="I23" s="3">
+        <v>300</v>
+      </c>
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>300</v>
       </c>
       <c r="M23" s="3">
         <v>300</v>
       </c>
       <c r="N23" s="3">
+        <v>300</v>
+      </c>
+      <c r="O23" s="3">
         <v>200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>800</v>
       </c>
       <c r="P23" s="3">
         <v>800</v>
       </c>
       <c r="Q23" s="3">
+        <v>800</v>
+      </c>
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>500</v>
-      </c>
-      <c r="V23" s="3">
-        <v>800</v>
       </c>
       <c r="W23" s="3">
         <v>800</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
@@ -2042,26 +2088,26 @@
         <v>100</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E26" s="3">
         <v>400</v>
       </c>
       <c r="F26" s="3">
+        <v>400</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>700</v>
       </c>
       <c r="P26" s="3">
         <v>700</v>
       </c>
       <c r="Q26" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="R26" s="3">
         <v>500</v>
       </c>
       <c r="S26" s="3">
+        <v>500</v>
+      </c>
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>700</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E27" s="3">
         <v>400</v>
       </c>
       <c r="F27" s="3">
+        <v>400</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>700</v>
       </c>
       <c r="P27" s="3">
         <v>700</v>
       </c>
       <c r="Q27" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="R27" s="3">
         <v>500</v>
       </c>
       <c r="S27" s="3">
+        <v>500</v>
+      </c>
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>700</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2465,14 +2526,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2484,22 +2545,22 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>2500</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-600</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,26 +2749,29 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2709,22 +2779,22 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
@@ -2733,23 +2803,23 @@
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E33" s="3">
         <v>400</v>
       </c>
       <c r="F33" s="3">
+        <v>400</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>700</v>
       </c>
       <c r="P33" s="3">
         <v>700</v>
       </c>
       <c r="Q33" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="R33" s="3">
         <v>500</v>
       </c>
       <c r="S33" s="3">
+        <v>500</v>
+      </c>
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E35" s="3">
         <v>400</v>
       </c>
       <c r="F35" s="3">
+        <v>400</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>700</v>
       </c>
       <c r="P35" s="3">
         <v>700</v>
       </c>
       <c r="Q35" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="R35" s="3">
         <v>500</v>
       </c>
       <c r="S35" s="3">
+        <v>500</v>
+      </c>
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,105 +3267,109 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E41" s="3">
         <v>8100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>16000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>12200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>12700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>13700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E42" s="3">
         <v>5500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>8200</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -3296,8 +3386,8 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -3320,14 +3410,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
+      <c r="T42" s="3">
+        <v>0</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -3353,94 +3443,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E43" s="3">
         <v>5000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>6600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>6000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,19 +3621,22 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
       </c>
       <c r="F45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
@@ -3546,159 +3645,165 @@
         <v>500</v>
       </c>
       <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>500</v>
       </c>
       <c r="O45" s="3">
         <v>500</v>
       </c>
       <c r="P45" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
-      </c>
-      <c r="R45" s="3">
-        <v>500</v>
       </c>
       <c r="S45" s="3">
         <v>500</v>
       </c>
       <c r="T45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="U45" s="3">
         <v>300</v>
       </c>
       <c r="V45" s="3">
+        <v>300</v>
+      </c>
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>500</v>
-      </c>
-      <c r="X45" s="3">
-        <v>400</v>
       </c>
       <c r="Y45" s="3">
         <v>400</v>
       </c>
       <c r="Z45" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA45" s="3">
         <v>3700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E46" s="3">
         <v>19000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>22800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>28900</v>
-      </c>
-      <c r="N46" s="3">
-        <v>28600</v>
       </c>
       <c r="O46" s="3">
         <v>28600</v>
       </c>
       <c r="P46" s="3">
+        <v>28600</v>
+      </c>
+      <c r="Q46" s="3">
         <v>27100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>24600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>26000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>24300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>23700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>23300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>23400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>20900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>19900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>19700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>21700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>20000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>20100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>20500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3748,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="T47" s="3">
         <v>1300</v>
@@ -3759,8 +3864,8 @@
       <c r="V47" s="3">
         <v>1300</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
+      <c r="W47" s="3">
+        <v>1300</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
@@ -3768,14 +3873,14 @@
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="3" t="s">
+      <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB47" s="3">
-        <v>0</v>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC47" s="3">
         <v>0</v>
@@ -3783,25 +3888,28 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
@@ -3810,16 +3918,16 @@
         <v>700</v>
       </c>
       <c r="K48" s="3">
+        <v>700</v>
+      </c>
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1100</v>
       </c>
       <c r="O48" s="3">
         <v>1100</v>
@@ -3828,10 +3936,10 @@
         <v>1100</v>
       </c>
       <c r="Q48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R48" s="3">
         <v>1200</v>
-      </c>
-      <c r="R48" s="3">
-        <v>300</v>
       </c>
       <c r="S48" s="3">
         <v>300</v>
@@ -3846,31 +3954,34 @@
         <v>300</v>
       </c>
       <c r="W48" s="3">
+        <v>300</v>
+      </c>
+      <c r="X48" s="3">
         <v>2000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>300</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>2400</v>
       </c>
       <c r="AB48" s="3">
         <v>2400</v>
       </c>
       <c r="AC48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AD48" s="3">
         <v>2500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4145,7 +4265,7 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
@@ -4157,7 +4277,7 @@
         <v>400</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
@@ -4166,7 +4286,7 @@
         <v>300</v>
       </c>
       <c r="O52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
@@ -4202,7 +4322,7 @@
         <v>400</v>
       </c>
       <c r="AA52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E54" s="3">
         <v>19600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>26200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>26600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>26300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>25300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>25400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>23300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>22500</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>22400</v>
       </c>
       <c r="Z54" s="3">
         <v>22400</v>
       </c>
       <c r="AA54" s="3">
+        <v>22400</v>
+      </c>
+      <c r="AB54" s="3">
         <v>22500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>22600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>23100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,79 +4579,80 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1900</v>
       </c>
       <c r="N57" s="3">
         <v>1900</v>
       </c>
       <c r="O57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P57" s="3">
         <v>2000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1400</v>
       </c>
       <c r="Q57" s="3">
         <v>1400</v>
       </c>
       <c r="R57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1500</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>1400</v>
       </c>
       <c r="AA57" s="3">
         <v>1400</v>
@@ -4530,13 +4661,16 @@
         <v>1400</v>
       </c>
       <c r="AC57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD57" s="3">
         <v>1500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4565,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>1300</v>
@@ -4574,14 +4708,14 @@
         <v>1300</v>
       </c>
       <c r="O58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
@@ -4621,28 +4755,31 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>600</v>
@@ -4651,53 +4788,53 @@
         <v>600</v>
       </c>
       <c r="L59" s="3">
+        <v>600</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
-      </c>
-      <c r="P59" s="3">
-        <v>600</v>
       </c>
       <c r="Q59" s="3">
         <v>600</v>
       </c>
       <c r="R59" s="3">
+        <v>600</v>
+      </c>
+      <c r="S59" s="3">
         <v>2100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
-      </c>
       <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
         <v>100</v>
       </c>
-      <c r="AA59" s="3">
-        <v>0</v>
-      </c>
       <c r="AB59" s="3">
         <v>0</v>
       </c>
@@ -4707,94 +4844,100 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2200</v>
       </c>
       <c r="H60" s="3">
         <v>2200</v>
       </c>
       <c r="I60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>3800</v>
       </c>
       <c r="O60" s="3">
         <v>3800</v>
       </c>
       <c r="P60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2000</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>1500</v>
       </c>
       <c r="Z60" s="3">
         <v>1500</v>
       </c>
       <c r="AA60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="AB60" s="3">
         <v>1400</v>
       </c>
       <c r="AC60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD60" s="3">
         <v>1600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4823,22 +4966,22 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>600</v>
-      </c>
-      <c r="M61" s="3">
-        <v>700</v>
       </c>
       <c r="N61" s="3">
         <v>700</v>
       </c>
       <c r="O61" s="3">
+        <v>700</v>
+      </c>
+      <c r="P61" s="3">
         <v>1000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
@@ -4850,7 +4993,7 @@
         <v>100</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
@@ -4859,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>100</v>
@@ -4871,7 +5014,7 @@
         <v>100</v>
       </c>
       <c r="AB61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC61" s="3">
         <v>0</v>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4888,22 +5034,22 @@
         <v>1700</v>
       </c>
       <c r="E62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F62" s="3">
         <v>1900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2000</v>
       </c>
       <c r="G62" s="3">
         <v>2000</v>
       </c>
       <c r="H62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2400</v>
       </c>
       <c r="K62" s="3">
         <v>2400</v>
@@ -4912,7 +5058,7 @@
         <v>2400</v>
       </c>
       <c r="M62" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="N62" s="3">
         <v>2700</v>
@@ -4921,13 +5067,13 @@
         <v>2700</v>
       </c>
       <c r="P62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3000</v>
-      </c>
-      <c r="R62" s="3">
-        <v>2300</v>
       </c>
       <c r="S62" s="3">
         <v>2300</v>
@@ -4936,7 +5082,7 @@
         <v>2300</v>
       </c>
       <c r="U62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="V62" s="3">
         <v>2500</v>
@@ -4948,13 +5094,13 @@
         <v>2500</v>
       </c>
       <c r="Y62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z62" s="3">
         <v>2700</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="3" t="s">
-        <v>8</v>
+      <c r="AA62" s="3">
+        <v>0</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>8</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="E66" s="3">
         <v>3900</v>
       </c>
       <c r="F66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G66" s="3">
         <v>4100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E72" s="3">
         <v>14400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>17700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>16800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>16900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>19600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>20100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>20300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>20600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E76" s="3">
         <v>15700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>18200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>20700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>21000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>21100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>21500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E81" s="3">
         <v>400</v>
       </c>
       <c r="F81" s="3">
+        <v>400</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>700</v>
       </c>
       <c r="P81" s="3">
         <v>700</v>
       </c>
       <c r="Q81" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="R81" s="3">
         <v>500</v>
       </c>
       <c r="S81" s="3">
+        <v>500</v>
+      </c>
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6470,16 +6669,16 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>-400</v>
-      </c>
-      <c r="W83" s="3">
-        <v>200</v>
       </c>
       <c r="X83" s="3">
         <v>200</v>
       </c>
       <c r="Y83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z83" s="3">
         <v>100</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7104,34 +7325,37 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>300</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
       <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-300</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,20 +7529,23 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E94" s="3">
         <v>2800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -7332,14 +7562,14 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -7350,46 +7580,49 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>1200</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>600</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>1900</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
       <c r="Y94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z94" s="3">
         <v>-100</v>
       </c>
       <c r="AA94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,17 +7653,18 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1700</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -7438,23 +7672,23 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-1700</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -7465,11 +7699,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,17 +8007,20 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -7782,23 +8028,23 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -7806,29 +8052,29 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1700</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>-100</v>
       </c>
       <c r="V100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W100" s="3">
         <v>-1800</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7859,11 +8108,11 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-200</v>
       </c>
     </row>
